--- a/Resultados/Mercado mundial - Mangos, guayabas y mangostanes.xlsx
+++ b/Resultados/Mercado mundial - Mangos, guayabas y mangostanes.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Indonesia" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="China, mainland" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mexico" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Pakistan" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pakistán" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,7 +307,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -515,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -571,18 +570,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
+              <a:t>Exportaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -640,7 +639,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -653,18 +652,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Importaciones (Miles de Toneladas)</a:t>
+              <a:t>Importaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -722,7 +721,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Indonesia'!$B$12:$B$73</f>
+              <f>'Indonesia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Indonesia'!$C$12:$C$73</f>
+              <f>'Indonesia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mexico'!$B$12:$B$73</f>
+              <f>'México'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mexico'!$C$12:$C$73</f>
+              <f>'México'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Pakistan'!$B$12:$B$73</f>
+              <f>'Pakistán'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Pakistan'!$C$12:$C$73</f>
+              <f>'Pakistán'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>6159876</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>9.920200000000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>61107091.76</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>9.920200000000001</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1990260.14</v>
@@ -2161,10 +2160,10 @@
         <v>6079221</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>9.9527</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>60504953.6</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>9.9527</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1954487.91</v>
@@ -2183,10 +2182,10 @@
         <v>5923402</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>9.702299999999999</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>57470674.63</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>9.702299999999999</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2176813.26</v>
@@ -2205,10 +2204,10 @@
         <v>5855912</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>9.645700000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>56484477.26</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>9.645700000000001</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1931416.82</v>
@@ -2227,10 +2226,10 @@
         <v>5777281</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>9.793100000000001</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>56577427.07</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>9.793100000000001</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1818591.71</v>
@@ -2249,10 +2248,10 @@
         <v>5544024</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>9.8606</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>54667389.5</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>9.8606</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1859893.67</v>
@@ -2271,10 +2270,10 @@
         <v>5570277</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>9.4992</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>52913274.68</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>9.4992</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1740346.34</v>
@@ -2293,10 +2292,10 @@
         <v>5277343</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>9.022</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>47612363.91</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>9.022</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1548808.91</v>
@@ -2315,10 +2314,10 @@
         <v>5242765</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>8.9687</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>47020857.32</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>8.9687</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1367838.31</v>
@@ -2337,10 +2336,10 @@
         <v>5614254</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>8.222</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>46160632.75</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>8.222</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1338166.56</v>
@@ -2359,10 +2358,10 @@
         <v>5525755</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>8.129300000000001</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>44920572.76</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>8.129300000000001</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1188716</v>
@@ -2381,10 +2380,10 @@
         <v>5344804</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>7.837800000000001</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>41891438.63</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>7.837800000000001</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1116322</v>
@@ -2403,10 +2402,10 @@
         <v>5129329</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>7.7467</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>39735504.43</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>7.7467</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1098118</v>
@@ -2425,10 +2424,10 @@
         <v>4975512</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>7.5259</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>37445189.72</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>7.5259</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1018355</v>
@@ -2447,10 +2446,10 @@
         <v>5020632</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>7.081</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>35551217.95</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>7.081</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>868459</v>
@@ -2469,10 +2468,10 @@
         <v>4824995</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>7.6072</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>36704850.67</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>7.6072</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>908834</v>
@@ -2491,10 +2490,10 @@
         <v>4713830</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>7.4909</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>35310662.85</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>7.4909</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>898759</v>
@@ -2513,10 +2512,10 @@
         <v>4594979</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>7.4291</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>34136606.28</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>7.4291</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>851640</v>
@@ -2535,10 +2534,10 @@
         <v>4410839</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>7.233</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>31903735.41</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>7.233</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>754520</v>
@@ -2557,10 +2556,10 @@
         <v>4157484</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>7.1806</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>29853128.96</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>7.1806</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>799651</v>
@@ -2579,10 +2578,10 @@
         <v>3782627</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7.9194</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>29956298.99</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>7.9194</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>804074</v>
@@ -2601,10 +2600,10 @@
         <v>3649534</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>7.2358</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>26407133.29</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>7.2358</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>685188</v>
@@ -2623,10 +2622,10 @@
         <v>3559546</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>7.051699999999999</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>25100988.91</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>7.051699999999999</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>637030.14</v>
@@ -2645,10 +2644,10 @@
         <v>3568700</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6.9846</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>24926074.09</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>6.9846</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>621808.34</v>
@@ -2667,10 +2666,10 @@
         <v>3340495</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>7.112100000000001</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>23758045.07</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>7.112100000000001</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>565135.46</v>
@@ -2689,10 +2688,10 @@
         <v>3286993</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>6.965</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>22893776.03</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>6.965</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>497191.01</v>
@@ -2711,10 +2710,10 @@
         <v>2950661</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8.1098</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>23929396.82</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>8.1098</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>447953.77</v>
@@ -2733,10 +2732,10 @@
         <v>3001264</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>7.5986</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>22805465.43</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>7.5986</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>396900</v>
@@ -2755,10 +2754,10 @@
         <v>2956137</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>7.786899999999999</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>23019096.36</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>7.786899999999999</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>350166.15</v>
@@ -2777,10 +2776,10 @@
         <v>2723675</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>8.0298</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>21870495.11</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>8.0298</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>298777.53</v>
@@ -2799,10 +2798,10 @@
         <v>2605149</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>7.6618</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>19960034.76</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>7.6618</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>255354</v>
@@ -2821,10 +2820,10 @@
         <v>2482843</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>7.453600000000001</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>18506219.04</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>7.453600000000001</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>218140</v>
@@ -2843,10 +2842,10 @@
         <v>2380809</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>7.5324</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>17933320.03</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>7.5324</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>211076</v>
@@ -2865,10 +2864,10 @@
         <v>2026419</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>8.491700000000002</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>17207747.96</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>8.491700000000002</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>153987</v>
@@ -2887,10 +2886,10 @@
         <v>2006975</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>8.184100000000001</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>16425197</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>8.184100000000001</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>148812</v>
@@ -2909,10 +2908,10 @@
         <v>1939221</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>8.1099</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>15726969</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>8.1099</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>119496</v>
@@ -2931,10 +2930,10 @@
         <v>1896423</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>9.3545</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>17740169</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>9.3545</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>128786</v>
@@ -2953,10 +2952,10 @@
         <v>1815120</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>9.489700000000001</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>17224872</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>9.489700000000001</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>112763</v>
@@ -2975,10 +2974,10 @@
         <v>1783384</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>9.277299999999999</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>16545060</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>9.277299999999999</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>98908</v>
@@ -2997,10 +2996,10 @@
         <v>1886463</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>8.4331</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15908644</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>8.4331</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>90098</v>
@@ -3019,10 +3018,10 @@
         <v>1828792</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8.3886</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>15340948</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>8.3886</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>93233</v>
@@ -3041,10 +3040,10 @@
         <v>1801659</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8.375299999999999</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>15089475</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>8.375299999999999</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>79744</v>
@@ -3063,10 +3062,10 @@
         <v>1712965</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>8.843399999999999</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>15148508</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>8.843399999999999</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>54803</v>
@@ -3085,10 +3084,10 @@
         <v>1676714</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>8.5998</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>14419392</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>8.5998</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>58474</v>
@@ -3107,10 +3106,10 @@
         <v>1606007</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>8.7689</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>14082957</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>8.7689</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>43463</v>
@@ -3129,10 +3128,10 @@
         <v>1549165</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8.517100000000001</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>13194420</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8.517100000000001</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>36964</v>
@@ -3151,10 +3150,10 @@
         <v>1542561</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>8.5138</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>13132998</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>8.5138</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>25942</v>
@@ -3173,10 +3172,10 @@
         <v>1550192</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>13037114</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>8.41</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>23960</v>
@@ -3195,10 +3194,10 @@
         <v>1500482</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8.509</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>12767573</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8.509</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>20903</v>
@@ -3217,10 +3216,10 @@
         <v>1476384</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8.708600000000001</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>12857250</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8.708600000000001</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>19424</v>
@@ -3239,10 +3238,10 @@
         <v>1429135</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>8.638399999999999</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>12345488</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>8.638399999999999</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>16256</v>
@@ -3261,10 +3260,10 @@
         <v>1428688</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>8.7409</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>12488070</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>8.7409</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>13267</v>
@@ -3283,10 +3282,10 @@
         <v>1402683</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>8.6693</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>12160269</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>8.6693</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>13330</v>
@@ -3305,10 +3304,10 @@
         <v>1408309</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>8.542</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>12029753</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>8.542</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>11472</v>
@@ -3327,10 +3326,10 @@
         <v>1397014</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>8.518000000000001</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11899751</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>8.518000000000001</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>9137</v>
@@ -3349,10 +3348,10 @@
         <v>1397681</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>8.705</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>12166829</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>8.705</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>4614</v>
@@ -3371,10 +3370,10 @@
         <v>1383516</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>8.700799999999999</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12037655</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>8.700799999999999</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>3942</v>
@@ -3392,10 +3391,10 @@
         <v>1349745</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.5396</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>11526296</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.5396</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>5626</v>
@@ -3413,10 +3412,10 @@
         <v>1338699</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>8.5799</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>11485945</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>8.5799</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>4790</v>
@@ -3434,10 +3433,10 @@
         <v>1297901</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>8.598799999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>11160417</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>8.598799999999999</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>3955</v>
@@ -3455,10 +3454,10 @@
         <v>1304800</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8.529299999999999</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>11128982</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8.529299999999999</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>5066</v>
@@ -3476,10 +3475,10 @@
         <v>1295754</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>8.7026</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11276468</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>8.7026</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>4754</v>
@@ -3497,10 +3496,10 @@
         <v>1280629</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>8.510899999999999</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>10899284</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>8.510899999999999</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>5028</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3911,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3925,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3953,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3981,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4117,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4216,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4230,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4244,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4258,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4272,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4286,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4342,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4538,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4634,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4648,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4662,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4676,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4690,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4704,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4718,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4732,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malasia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4746,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Arabia Saudita</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4774,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>502.81</v>
+        <v>582621.2599999998</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.0002526353163059378</v>
+        <v>0.2927362349727809</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>582118.4499999997</v>
+        <v>1990260.14</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.2924835996564749</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>1990260.14</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4820,59 +4811,58 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4942,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5021,10 +5011,10 @@
         <v>2698000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>9.724200000000002</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>26236000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>9.724200000000002</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>373.12</v>
@@ -5043,10 +5033,10 @@
         <v>2704000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>9.726000000000001</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>26299000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>9.726000000000001</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>404.86</v>
@@ -5065,10 +5055,10 @@
         <v>2625000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>9.5116</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>24968000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>9.5116</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>202.74</v>
@@ -5087,10 +5077,10 @@
         <v>2586000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>9.542899999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>24678000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>9.542899999999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>655.91</v>
@@ -5109,10 +5099,10 @@
         <v>2572000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>9.965399999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>25631000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>9.965399999999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>910.9299999999999</v>
@@ -5131,10 +5121,10 @@
         <v>2527000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>9.879700000000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>24966000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>9.879700000000001</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>644.96</v>
@@ -5153,10 +5143,10 @@
         <v>2472000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>9.438499999999999</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>23332000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>9.438499999999999</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>492.81</v>
@@ -5175,10 +5165,10 @@
         <v>2209000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>8.4396</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>18643000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>8.4396</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>523.96</v>
@@ -5197,10 +5187,10 @@
         <v>2163000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>8.5654</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>18527000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>8.5654</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>751.47</v>
@@ -5219,10 +5209,10 @@
         <v>2515970</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>7.325699999999999</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>18431330</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>7.325699999999999</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1035.51</v>
@@ -5241,10 +5231,10 @@
         <v>2500000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7.2008</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>18002000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>7.2008</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>653</v>
@@ -5263,10 +5253,10 @@
         <v>2378000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>6.8108</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>16196000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>6.8108</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>777</v>
@@ -5285,10 +5275,10 @@
         <v>2297000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6.612100000000001</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>15188000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6.612100000000001</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>631</v>
@@ -5307,10 +5297,10 @@
         <v>2312300</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6.498600000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>15026700</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6.498600000000001</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>132</v>
@@ -5329,10 +5319,10 @@
         <v>2309000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5.5219</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>12750000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>5.5219</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>297</v>
@@ -5351,10 +5341,10 @@
         <v>2201000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6.3594</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>13997000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6.3594</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>171</v>
@@ -5373,10 +5363,10 @@
         <v>2154000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6.376</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>13734000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6.376</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>104</v>
@@ -5395,10 +5385,10 @@
         <v>2080700</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6.086</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>12663100</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6.086</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>109</v>
@@ -5417,10 +5407,10 @@
         <v>1970400</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>6.0037</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>11829700</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>6.0037</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>100</v>
@@ -5439,10 +5429,10 @@
         <v>1906700</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>6.0261</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>11490000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>6.0261</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>6</v>
@@ -5461,10 +5451,10 @@
         <v>1623400</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7.8435</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>12733200</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>7.8435</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>49</v>
@@ -5483,10 +5473,10 @@
         <v>1575800</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>6.3588</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>10020200</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>6.3588</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>59</v>
@@ -5505,10 +5495,10 @@
         <v>1519000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6.6207</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>10056800</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>6.6207</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>19</v>
@@ -5527,10 +5517,10 @@
         <v>1486900</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>7.064</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>10503500</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>7.064</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>29</v>
@@ -5549,10 +5539,10 @@
         <v>1401600</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6.979</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>9781700</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6.979</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>7.35</v>
@@ -5571,10 +5561,10 @@
         <v>1400000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>7.3071</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>10230000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>7.3071</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5593,10 +5583,10 @@
         <v>1200000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>9.166700000000001</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>11000000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>9.166700000000001</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>13</v>
@@ -5615,10 +5605,10 @@
         <v>1300000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>8.413200000000002</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>10937183.17</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>8.413200000000002</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>18</v>
@@ -5637,10 +5627,10 @@
         <v>1280000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>8.5938</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>11000000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>8.5938</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -5659,10 +5649,10 @@
         <v>1230000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>8.935</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10990000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>8.935</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>4</v>
@@ -5681,10 +5671,10 @@
         <v>1220000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>8.286899999999999</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>10110000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>8.286899999999999</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5703,10 +5693,10 @@
         <v>1136668</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8.1143</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>9223256</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>8.1143</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5725,10 +5715,10 @@
         <v>1077621</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>8.121700000000001</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>8752134</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>8.121700000000001</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5747,10 +5737,10 @@
         <v>846292</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>10.2156</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>8645405</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>10.2156</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5769,10 +5759,10 @@
         <v>860000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>9.888399999999999</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>8504000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>9.888399999999999</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5791,10 +5781,10 @@
         <v>852000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>9.304</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>7927000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>9.304</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>72</v>
@@ -5813,10 +5803,10 @@
         <v>834000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>12.1263</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10113330</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>12.1263</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>4</v>
@@ -5835,10 +5825,10 @@
         <v>805000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>12.2621</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>9871000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>12.2621</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>2</v>
@@ -5857,10 +5847,10 @@
         <v>795000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>11.7453</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>9337520</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>11.7453</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5879,10 +5869,10 @@
         <v>1042660</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>8.7799</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>9154460</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>8.7799</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5901,10 +5891,10 @@
         <v>1022220</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8.6418</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8833800</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>8.6418</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>48</v>
@@ -5923,10 +5913,10 @@
         <v>1001540</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8.6495</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8662810</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>8.6495</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1</v>
@@ -5945,10 +5935,10 @@
         <v>979640</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>8.6927</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>8515710</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>8.6927</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>123</v>
@@ -5967,10 +5957,10 @@
         <v>958430</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>8.726000000000001</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>8363300</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>8.726000000000001</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>21</v>
@@ -5989,10 +5979,10 @@
         <v>942560</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>8.7172</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>8216510</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>8.7172</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>12</v>
@@ -6011,10 +6001,10 @@
         <v>925480</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8.1333</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>7527200</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8.1333</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>9</v>
@@ -6033,10 +6023,10 @@
         <v>905350</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>8.235899999999999</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>7456340</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>8.235899999999999</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>30</v>
@@ -6055,10 +6045,10 @@
         <v>898400</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8.2369</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>7400000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>8.2369</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>113</v>
@@ -6077,10 +6067,10 @@
         <v>886200</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8.237399999999999</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>7300000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8.237399999999999</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>28</v>
@@ -6099,10 +6089,10 @@
         <v>886200</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8.237399999999999</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>7300000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8.237399999999999</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>337</v>
@@ -6121,10 +6111,10 @@
         <v>874100</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>8.237</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>7200000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>8.237</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>20</v>
@@ -6143,10 +6133,10 @@
         <v>874100</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>8.237</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>7200000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>8.237</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>154</v>
@@ -6165,10 +6155,10 @@
         <v>862000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>8.236700000000001</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>7100000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>8.236700000000001</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>42</v>
@@ -6187,10 +6177,10 @@
         <v>862000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>8.236700000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>7100000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>8.236700000000001</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6209,10 +6199,10 @@
         <v>862000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>8.236700000000001</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>7100000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>8.236700000000001</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1</v>
@@ -6231,10 +6221,10 @@
         <v>862000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>8.236700000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7100000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>8.236700000000001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>15</v>
@@ -6253,10 +6243,10 @@
         <v>862000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>8.236700000000001</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>7100000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>8.236700000000001</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>30</v>
@@ -6274,10 +6264,10 @@
         <v>850000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.235299999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>7000000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.235299999999999</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6295,10 +6285,10 @@
         <v>850000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>8.235299999999999</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>7000000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>8.235299999999999</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>2</v>
@@ -6316,10 +6306,10 @@
         <v>850000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>8.235299999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>7000000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>8.235299999999999</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6337,10 +6327,10 @@
         <v>850000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8.235299999999999</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>7000000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8.235299999999999</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6358,10 +6348,10 @@
         <v>850000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>8.221200000000001</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6988000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>8.221200000000001</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6379,10 +6369,10 @@
         <v>850000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>8.221200000000001</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6988000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>8.221200000000001</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6718,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6797,10 +6787,10 @@
         <v>298827</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>13.7352</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>4104448.7</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>13.7352</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.2</v>
@@ -6819,10 +6809,10 @@
         <v>303776</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>13.5799</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>4125243.73</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>13.5799</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.01</v>
@@ -6841,10 +6831,10 @@
         <v>265324</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>13.4246</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3561867.46</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>13.4246</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0</v>
@@ -6863,10 +6853,10 @@
         <v>266726</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>13.5617</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3617270.9</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>13.5617</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.09</v>
@@ -6885,10 +6875,10 @@
         <v>246333</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>13.3754</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3294817</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>13.3754</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.01</v>
@@ -6907,10 +6897,10 @@
         <v>233824</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>13.1878</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3083621</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>13.1878</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.25</v>
@@ -6929,10 +6919,10 @@
         <v>197226</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>13.0107</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2566046</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>13.0107</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1.14</v>
@@ -6951,10 +6941,10 @@
         <v>171221</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>12.7577</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2184399</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>12.7577</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.06</v>
@@ -6973,10 +6963,10 @@
         <v>176946</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2176448</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>12.3</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -6993,10 +6983,10 @@
         <v>251000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>10.8905</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2733508</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>10.8905</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>233.47</v>
@@ -7015,10 +7005,10 @@
         <v>207151</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>12.137</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2514187</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>12.137</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>387</v>
@@ -7037,10 +7027,10 @@
         <v>219667</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>12.6318</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2774784</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>12.6318</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1052</v>
@@ -7059,10 +7049,10 @@
         <v>208280</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>11.8138</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2460570</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>11.8138</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>989</v>
@@ -7081,10 +7071,10 @@
         <v>131674</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>11.9718</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1576376</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>11.9718</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1129</v>
@@ -7103,10 +7093,10 @@
         <v>215387</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>11.9283</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2569200</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>11.9283</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>821</v>
@@ -7125,10 +7115,10 @@
         <v>190793</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>12.5582</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2396019</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>12.5582</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>969</v>
@@ -7147,10 +7137,10 @@
         <v>203997</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>10.3473</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2110815</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>10.3473</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1088</v>
@@ -7169,10 +7159,10 @@
         <v>195503</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>9.6715</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1890811</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>9.6715</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>966</v>
@@ -7191,10 +7181,10 @@
         <v>176000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>9.409700000000001</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1656104</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>9.409700000000001</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>869</v>
@@ -7213,10 +7203,10 @@
         <v>185773</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>9.205299999999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1710102</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>9.205299999999999</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>689</v>
@@ -7235,10 +7225,10 @@
         <v>158894</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>11.6093</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1844654</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>11.6093</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>348</v>
@@ -7257,10 +7247,10 @@
         <v>184659</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>8.811299999999999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1627081</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>8.811299999999999</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>254</v>
@@ -7279,10 +7269,10 @@
         <v>144208</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>7.535699999999999</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1086704</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>7.535699999999999</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>186</v>
@@ -7301,10 +7291,10 @@
         <v>144185</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>7.1509</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1031048</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>7.1509</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>64.06999999999999</v>
@@ -7323,10 +7313,10 @@
         <v>137018</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>7.1914</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>985357</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>7.1914</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>40</v>
@@ -7345,10 +7335,10 @@
         <v>133452</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>5.785100000000001</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>772032</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>5.785100000000001</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2</v>
@@ -7367,10 +7357,10 @@
         <v>148336</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8.532200000000001</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1265636</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>8.532200000000001</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>48</v>
@@ -7389,10 +7379,10 @@
         <v>148820</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>6.774100000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1008121.5</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>6.774100000000001</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>41</v>
@@ -7411,10 +7401,10 @@
         <v>196604</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>5.9331</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1166464.5</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>5.9331</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>45</v>
@@ -7433,10 +7423,10 @@
         <v>133454</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>6.5905</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>879526</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>6.5905</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>8</v>
@@ -7455,10 +7445,10 @@
         <v>126184</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>5.211399999999999</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>657600</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>5.211399999999999</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>4</v>
@@ -7477,10 +7467,10 @@
         <v>139563</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>4.983899999999999</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>695574</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>4.983899999999999</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>6</v>
@@ -7499,10 +7489,10 @@
         <v>159031</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>4.0272</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>640457</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>4.0272</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -7521,10 +7511,10 @@
         <v>124790</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>4.078</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>508889</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>4.078</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -7543,10 +7533,10 @@
         <v>112413</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>445042</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3.959</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7565,10 +7555,10 @@
         <v>104861</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5.0731</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>531968</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5.0731</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -7587,10 +7577,10 @@
         <v>121127</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4.259600000000001</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>515949</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>4.259600000000001</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7609,10 +7599,10 @@
         <v>91000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>4.4505</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>405000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>4.4505</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7631,10 +7621,10 @@
         <v>87831</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4.7414</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>416444</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4.7414</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7653,10 +7643,10 @@
         <v>89326</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>4.9509</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>442244</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>4.9509</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1</v>
@@ -7675,10 +7665,10 @@
         <v>85103</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5.263</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>447900</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>5.263</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7697,10 +7687,10 @@
         <v>99000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>4.272699999999999</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>423000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>4.272699999999999</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7719,10 +7709,10 @@
         <v>73742</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>4.1849</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>308601</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>4.1849</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7741,10 +7731,10 @@
         <v>76753</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4.2373</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>325225</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>4.2373</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7763,10 +7753,10 @@
         <v>80625</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4.1326</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>333188</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4.1326</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7785,10 +7775,10 @@
         <v>44000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>3.7273</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>164000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>3.7273</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7807,10 +7797,10 @@
         <v>72000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>4.7757</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>343850</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>4.7757</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7829,10 +7819,10 @@
         <v>93800</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2.4094</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>226000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2.4094</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7851,10 +7841,10 @@
         <v>58800</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4.535699999999999</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>266700</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>4.535699999999999</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7873,10 +7863,10 @@
         <v>59000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>7.2864</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>429900</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>7.2864</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7895,10 +7885,10 @@
         <v>47000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>7.1064</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>334000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>7.1064</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7917,10 +7907,10 @@
         <v>58000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>6.3103</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>366000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>6.3103</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7939,10 +7929,10 @@
         <v>41000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>6.8293</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>280000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>6.8293</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7961,10 +7951,10 @@
         <v>56000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5.9821</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>335000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5.9821</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7983,10 +7973,10 @@
         <v>80000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>350000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4.375</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -8005,10 +7995,10 @@
         <v>80000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>350000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>4.375</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8027,10 +8017,10 @@
         <v>80000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>350000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>4.375</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8048,10 +8038,10 @@
         <v>70000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4.285699999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>4.285699999999999</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8069,10 +8059,10 @@
         <v>75000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>315000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>4.2</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8090,10 +8080,10 @@
         <v>68000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>4.264699999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>290000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>4.264699999999999</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8111,10 +8101,10 @@
         <v>75000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>4.2667</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>320000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>4.2667</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8132,10 +8122,10 @@
         <v>70000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>4.285699999999999</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>4.285699999999999</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8153,10 +8143,10 @@
         <v>70000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>4.285699999999999</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>300000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>4.285699999999999</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8492,7 +8482,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8571,14 +8561,17 @@
         <v>390712</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>9.881500000000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3860824.91</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>9.881500000000001</v>
-      </c>
-      <c r="F12" s="29" t="inlineStr"/>
-      <c r="G12" s="29" t="inlineStr"/>
-      <c r="H12" s="29" t="n"/>
+      <c r="F12" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -8589,14 +8582,17 @@
         <v>381000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>9.973799999999999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3800000</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>9.973799999999999</v>
-      </c>
-      <c r="F13" s="29" t="inlineStr"/>
-      <c r="G13" s="29" t="inlineStr"/>
-      <c r="H13" s="29" t="n"/>
+      <c r="F13" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -8607,14 +8603,17 @@
         <v>370000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>10.2432</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3790000</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>10.2432</v>
-      </c>
-      <c r="F14" s="29" t="inlineStr"/>
-      <c r="G14" s="29" t="inlineStr"/>
-      <c r="H14" s="29" t="n"/>
+      <c r="F14" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -8625,14 +8624,17 @@
         <v>360000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3798000</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="F15" s="29" t="inlineStr"/>
-      <c r="G15" s="29" t="inlineStr"/>
-      <c r="H15" s="29" t="n"/>
+      <c r="F15" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -8643,14 +8645,17 @@
         <v>339600</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>9.664299999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3282000</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>9.664299999999999</v>
-      </c>
-      <c r="F16" s="29" t="inlineStr"/>
-      <c r="G16" s="29" t="inlineStr"/>
-      <c r="H16" s="29" t="n"/>
+      <c r="F16" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -8661,14 +8666,17 @@
         <v>334313</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>9.425600000000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3151109.06</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>9.425600000000001</v>
-      </c>
-      <c r="F17" s="29" t="inlineStr"/>
-      <c r="G17" s="29" t="inlineStr"/>
-      <c r="H17" s="29" t="n"/>
+      <c r="F17" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -8679,14 +8687,17 @@
         <v>326414</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>9.2745</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>3027318.57</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>9.2745</v>
-      </c>
-      <c r="F18" s="29" t="inlineStr"/>
-      <c r="G18" s="29" t="inlineStr"/>
-      <c r="H18" s="29" t="n"/>
+      <c r="F18" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -8697,14 +8708,17 @@
         <v>317224</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>9.222299999999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2925545.24</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>9.222299999999999</v>
-      </c>
-      <c r="F19" s="29" t="inlineStr"/>
-      <c r="G19" s="29" t="inlineStr"/>
-      <c r="H19" s="29" t="n"/>
+      <c r="F19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -8715,14 +8729,17 @@
         <v>310617</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>9.0283</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2804340.56</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>9.0283</v>
-      </c>
-      <c r="F20" s="29" t="inlineStr"/>
-      <c r="G20" s="29" t="inlineStr"/>
-      <c r="H20" s="29" t="n"/>
+      <c r="F20" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -8733,14 +8750,17 @@
         <v>294625</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>8.593500000000001</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2531859.47</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>8.593500000000001</v>
-      </c>
-      <c r="F21" s="29" t="inlineStr"/>
-      <c r="G21" s="29" t="inlineStr"/>
-      <c r="H21" s="29" t="n"/>
+      <c r="F21" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -8751,14 +8771,17 @@
         <v>341872</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>8.966100000000001</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>3065275.41</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>8.966100000000001</v>
-      </c>
-      <c r="F22" s="29" t="inlineStr"/>
-      <c r="G22" s="29" t="inlineStr"/>
-      <c r="H22" s="29" t="n"/>
+      <c r="F22" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -8769,14 +8792,17 @@
         <v>335646</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>8.148399999999999</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2734978.41</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>8.148399999999999</v>
-      </c>
-      <c r="F23" s="29" t="inlineStr"/>
-      <c r="G23" s="29" t="inlineStr"/>
-      <c r="H23" s="29" t="n"/>
+      <c r="F23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -8787,14 +8813,17 @@
         <v>350125</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>8.301</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2906401.21</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>8.301</v>
-      </c>
-      <c r="F24" s="29" t="inlineStr"/>
-      <c r="G24" s="29" t="inlineStr"/>
-      <c r="H24" s="29" t="n"/>
+      <c r="F24" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -8805,14 +8834,17 @@
         <v>363052</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>8.381399999999999</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>3042885.2</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>8.381399999999999</v>
-      </c>
-      <c r="F25" s="29" t="inlineStr"/>
-      <c r="G25" s="29" t="inlineStr"/>
-      <c r="H25" s="29" t="n"/>
+      <c r="F25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -8823,14 +8855,17 @@
         <v>376583</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>8.475299999999999</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3191641.28</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>8.475299999999999</v>
-      </c>
-      <c r="F26" s="29" t="inlineStr"/>
-      <c r="G26" s="29" t="inlineStr"/>
-      <c r="H26" s="29" t="n"/>
+      <c r="F26" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -8841,14 +8876,17 @@
         <v>390314</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>8.5823</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>3349787.89</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>8.5823</v>
-      </c>
-      <c r="F27" s="29" t="inlineStr"/>
-      <c r="G27" s="29" t="inlineStr"/>
-      <c r="H27" s="29" t="n"/>
+      <c r="F27" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -8859,14 +8897,17 @@
         <v>425000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>8.235299999999999</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3500000</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>8.235299999999999</v>
-      </c>
-      <c r="F28" s="29" t="inlineStr"/>
-      <c r="G28" s="29" t="inlineStr"/>
-      <c r="H28" s="29" t="n"/>
+      <c r="F28" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -8877,14 +8918,17 @@
         <v>418000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>9.3301</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>3900000</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>9.3301</v>
-      </c>
-      <c r="F29" s="29" t="inlineStr"/>
-      <c r="G29" s="29" t="inlineStr"/>
-      <c r="H29" s="29" t="n"/>
+      <c r="F29" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -8895,14 +8939,17 @@
         <v>415000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>9.8795</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>4100000</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>9.8795</v>
-      </c>
-      <c r="F30" s="29" t="inlineStr"/>
-      <c r="G30" s="29" t="inlineStr"/>
-      <c r="H30" s="29" t="n"/>
+      <c r="F30" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -8913,14 +8960,17 @@
         <v>400000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>3660000</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F31" s="29" t="inlineStr"/>
-      <c r="G31" s="29" t="inlineStr"/>
-      <c r="H31" s="29" t="n"/>
+      <c r="F31" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -8931,14 +8981,17 @@
         <v>390000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>8.589700000000001</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>3350000</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>8.589700000000001</v>
-      </c>
-      <c r="F32" s="29" t="inlineStr"/>
-      <c r="G32" s="29" t="inlineStr"/>
-      <c r="H32" s="29" t="n"/>
+      <c r="F32" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -8949,14 +9002,17 @@
         <v>375000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>3300000</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F33" s="29" t="inlineStr"/>
-      <c r="G33" s="29" t="inlineStr"/>
-      <c r="H33" s="29" t="n"/>
+      <c r="F33" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -8967,14 +9023,17 @@
         <v>370000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>8.270299999999999</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>3060000</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>8.270299999999999</v>
-      </c>
-      <c r="F34" s="29" t="inlineStr"/>
-      <c r="G34" s="29" t="inlineStr"/>
-      <c r="H34" s="29" t="n"/>
+      <c r="F34" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -8985,14 +9044,17 @@
         <v>460000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6.5217</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>3000000</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>6.5217</v>
-      </c>
-      <c r="F35" s="29" t="inlineStr"/>
-      <c r="G35" s="29" t="inlineStr"/>
-      <c r="H35" s="29" t="n"/>
+      <c r="F35" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -9003,14 +9065,17 @@
         <v>400000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2920000</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F36" s="29" t="inlineStr"/>
-      <c r="G36" s="29" t="inlineStr"/>
-      <c r="H36" s="29" t="n"/>
+      <c r="F36" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -9021,14 +9086,17 @@
         <v>380000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>2375000</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="F37" s="29" t="inlineStr"/>
-      <c r="G37" s="29" t="inlineStr"/>
-      <c r="H37" s="29" t="n"/>
+      <c r="F37" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -9039,14 +9107,17 @@
         <v>294000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7.483</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2200000</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>7.483</v>
-      </c>
-      <c r="F38" s="29" t="inlineStr"/>
-      <c r="G38" s="29" t="inlineStr"/>
-      <c r="H38" s="29" t="n"/>
+      <c r="F38" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -9057,14 +9128,17 @@
         <v>300500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>6.2296</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1872000</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>6.2296</v>
-      </c>
-      <c r="F39" s="29" t="inlineStr"/>
-      <c r="G39" s="29" t="inlineStr"/>
-      <c r="H39" s="29" t="n"/>
+      <c r="F39" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -9075,14 +9149,17 @@
         <v>267000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>6.7416</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1800000</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>6.7416</v>
-      </c>
-      <c r="F40" s="29" t="inlineStr"/>
-      <c r="G40" s="29" t="inlineStr"/>
-      <c r="H40" s="29" t="n"/>
+      <c r="F40" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -9093,14 +9170,17 @@
         <v>172000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>8.314</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1430000</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>8.314</v>
-      </c>
-      <c r="F41" s="29" t="inlineStr"/>
-      <c r="G41" s="29" t="inlineStr"/>
-      <c r="H41" s="29" t="n"/>
+      <c r="F41" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -9111,14 +9191,17 @@
         <v>145000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>8.0207</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1163000</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>8.0207</v>
-      </c>
-      <c r="F42" s="29" t="inlineStr"/>
-      <c r="G42" s="29" t="inlineStr"/>
-      <c r="H42" s="29" t="n"/>
+      <c r="F42" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -9129,14 +9212,17 @@
         <v>130000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>7.6923</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1000000</v>
       </c>
-      <c r="E43" s="29" t="n">
-        <v>7.6923</v>
-      </c>
-      <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
-      <c r="H43" s="29" t="n"/>
+      <c r="F43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -9147,14 +9233,17 @@
         <v>100000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>940000</v>
       </c>
-      <c r="E44" s="29" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
-      <c r="H44" s="29" t="n"/>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -9165,14 +9254,17 @@
         <v>95000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>8.421100000000001</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>800000</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>8.421100000000001</v>
-      </c>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -9183,14 +9275,17 @@
         <v>80000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>524000</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="F46" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -9201,14 +9296,17 @@
         <v>75000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>6.6667</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>500000</v>
       </c>
-      <c r="E47" s="29" t="n">
-        <v>6.6667</v>
-      </c>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="F47" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -9219,14 +9317,17 @@
         <v>65000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>6.615399999999999</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>430000</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>6.615399999999999</v>
-      </c>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="F48" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -9237,14 +9338,17 @@
         <v>55000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>6.3636</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>350000</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>6.3636</v>
-      </c>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="F49" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -9255,14 +9359,17 @@
         <v>52000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>5.7692</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>300000</v>
       </c>
-      <c r="E50" s="29" t="n">
-        <v>5.7692</v>
-      </c>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="F50" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -9273,14 +9380,17 @@
         <v>55000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>286000</v>
       </c>
-      <c r="E51" s="29" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="F51" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -9291,14 +9401,17 @@
         <v>45000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>234000</v>
       </c>
-      <c r="E52" s="29" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="F52" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -9309,14 +9422,17 @@
         <v>43000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>4.8372</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>208000</v>
       </c>
-      <c r="E53" s="29" t="n">
-        <v>4.8372</v>
-      </c>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="F53" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -9327,14 +9443,17 @@
         <v>35000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5.828600000000001</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>204000</v>
       </c>
-      <c r="E54" s="29" t="n">
-        <v>5.828600000000001</v>
-      </c>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="F54" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -9345,14 +9464,17 @@
         <v>36000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5.3056</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>191000</v>
       </c>
-      <c r="E55" s="29" t="n">
-        <v>5.3056</v>
-      </c>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="F55" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -9363,14 +9485,17 @@
         <v>35000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5.3714</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>188000</v>
       </c>
-      <c r="E56" s="29" t="n">
-        <v>5.3714</v>
-      </c>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="F56" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -9381,14 +9506,17 @@
         <v>51000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4.156899999999999</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>212000</v>
       </c>
-      <c r="E57" s="29" t="n">
-        <v>4.156899999999999</v>
-      </c>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="F57" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -9399,14 +9527,17 @@
         <v>50000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>185000</v>
       </c>
-      <c r="E58" s="29" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="F58" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -9417,14 +9548,17 @@
         <v>55000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>3.4545</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>190000</v>
       </c>
-      <c r="E59" s="29" t="n">
-        <v>3.4545</v>
-      </c>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="F59" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -9435,14 +9569,17 @@
         <v>50000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>200000</v>
       </c>
-      <c r="E60" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="F60" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -9453,14 +9590,17 @@
         <v>53000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4.1509</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>220000</v>
       </c>
-      <c r="E61" s="29" t="n">
-        <v>4.1509</v>
-      </c>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="F61" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -9471,14 +9611,17 @@
         <v>40000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>220000</v>
       </c>
-      <c r="E62" s="29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="F62" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -9489,14 +9632,17 @@
         <v>44000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>4.5455</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>200000</v>
       </c>
-      <c r="E63" s="29" t="n">
-        <v>4.5455</v>
-      </c>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="F63" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -9507,14 +9653,17 @@
         <v>50000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>180000</v>
       </c>
-      <c r="E64" s="29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="F64" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -9525,14 +9674,17 @@
         <v>49000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>3.6735</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>180000</v>
       </c>
-      <c r="E65" s="29" t="n">
-        <v>3.6735</v>
-      </c>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="F65" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -9543,14 +9695,17 @@
         <v>43000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4.0698</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>175000</v>
       </c>
-      <c r="E66" s="29" t="n">
-        <v>4.0698</v>
-      </c>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="F66" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -9561,14 +9716,17 @@
         <v>47000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>3.617</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>170000</v>
       </c>
-      <c r="E67" s="29" t="n">
-        <v>3.617</v>
-      </c>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="F67" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -9579,14 +9737,17 @@
         <v>39000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4.5385</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>177000</v>
       </c>
-      <c r="E68" s="29" t="n">
-        <v>4.5385</v>
-      </c>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="F68" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -9596,14 +9757,17 @@
         <v>40000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>176000</v>
       </c>
-      <c r="E69" s="29" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="F69" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -9613,14 +9777,17 @@
         <v>30000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>189000</v>
       </c>
-      <c r="E70" s="29" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="F70" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -9630,14 +9797,17 @@
         <v>30000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5.7333</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>172000</v>
       </c>
-      <c r="E71" s="29" t="n">
-        <v>5.7333</v>
-      </c>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="F71" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -9647,14 +9817,17 @@
         <v>30000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>183000</v>
       </c>
-      <c r="E72" s="29" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="F72" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -9664,14 +9837,17 @@
         <v>30000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5.7667</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>173000</v>
       </c>
-      <c r="E73" s="29" t="n">
-        <v>5.7667</v>
-      </c>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="F73" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -9681,14 +9857,17 @@
         <v>30000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6.3667</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>191000</v>
       </c>
-      <c r="E74" s="29" t="n">
-        <v>6.3667</v>
-      </c>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="F74" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -9696,8 +9875,6 @@
       <c r="D75" s="29" t="n"/>
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -9705,8 +9882,6 @@
       <c r="D76" s="29" t="n"/>
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -10016,7 +10191,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10095,10 +10270,10 @@
         <v>236374</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>11.4484</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2706107.45</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>11.4484</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>502.81</v>
@@ -10117,10 +10292,10 @@
         <v>222399</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>11.2285</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2497207.93</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>11.2285</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2558.03</v>
@@ -10139,10 +10314,10 @@
         <v>215591</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>11.3246</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2441495.85</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>11.3246</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1087.41</v>
@@ -10161,10 +10336,10 @@
         <v>213634</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>11.1083</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2373111.22</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>11.1083</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1403.06</v>
@@ -10183,10 +10358,10 @@
         <v>215982</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>11.0966</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2396675.34</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>11.0966</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1942.09</v>
@@ -10205,10 +10380,10 @@
         <v>210685</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>10.3421</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2178926.91</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>10.3421</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2347.23</v>
@@ -10227,10 +10402,10 @@
         <v>210847</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>10.8287</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2283192</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>10.8287</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1908.76</v>
@@ -10249,10 +10424,10 @@
         <v>206423</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>10.6447</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2197312.56</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>10.6447</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1768.35</v>
@@ -10271,10 +10446,10 @@
         <v>203276</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>10.183</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2069959.45</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>10.183</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1587.66</v>
@@ -10293,10 +10468,10 @@
         <v>196216</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>8.942200000000001</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1754608.84</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>8.942200000000001</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2041.44</v>
@@ -10315,10 +10490,10 @@
         <v>198883</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>9.562799999999999</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1901871</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>9.562799999999999</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>3307</v>
@@ -10337,10 +10512,10 @@
         <v>195674</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>8.9976</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1760588</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>8.9976</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2921</v>
@@ -10359,10 +10534,10 @@
         <v>196930</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>9.279</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1827314</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>9.279</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1976</v>
@@ -10381,10 +10556,10 @@
         <v>174970</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>9.331</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1632649</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>9.331</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2300</v>
@@ -10403,10 +10578,10 @@
         <v>170027</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>8.876700000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1509272</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>8.876700000000001</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2982</v>
@@ -10425,10 +10600,10 @@
         <v>172285</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>9.9634</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1716537</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>9.9634</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2007</v>
@@ -10447,10 +10622,10 @@
         <v>193390</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>9.882999999999999</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1911267</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>9.882999999999999</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2161</v>
@@ -10469,10 +10644,10 @@
         <v>195359</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>10.4714</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2045687</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>10.4714</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2004</v>
@@ -10491,10 +10666,10 @@
         <v>183061</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>9.1744</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1679472</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>9.1744</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1937</v>
@@ -10513,10 +10688,10 @@
         <v>166000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>9.475899999999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1573000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>9.475899999999999</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1545</v>
@@ -10535,10 +10710,10 @@
         <v>173837</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7.834899999999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1362000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>7.834899999999999</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2244</v>
@@ -10557,10 +10732,10 @@
         <v>161899</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>9.408100000000001</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1523160</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>9.408100000000001</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>989</v>
@@ -10579,10 +10754,10 @@
         <v>162304</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>9.719100000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1577450</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>9.719100000000001</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2271</v>
@@ -10601,10 +10776,10 @@
         <v>154304</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>10.1057</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1559351</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>10.1057</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1007.14</v>
@@ -10623,10 +10798,10 @@
         <v>155252</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>9.716299999999999</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1508468</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>9.716299999999999</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>167</v>
@@ -10645,10 +10820,10 @@
         <v>153896</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>9.5769</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1473852</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>9.5769</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>28</v>
@@ -10667,10 +10842,10 @@
         <v>149455</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>10.0386</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1500317</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>10.0386</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>60</v>
@@ -10689,10 +10864,10 @@
         <v>138598</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>8.578100000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1188907</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>8.578100000000001</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>20</v>
@@ -10711,10 +10886,10 @@
         <v>134902</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>9.948700000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1342097</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>9.948700000000001</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -10733,10 +10908,10 @@
         <v>127995</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>8.733600000000001</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1117853</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>8.733600000000001</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2</v>
@@ -10755,10 +10930,10 @@
         <v>120264</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>9.5722</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1151192</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>9.5722</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -10777,10 +10952,10 @@
         <v>120670</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8.9162</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1075921</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>8.9162</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>19</v>
@@ -10799,10 +10974,10 @@
         <v>115050</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>9.7166</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1117900</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>9.7166</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>66</v>
@@ -10821,10 +10996,10 @@
         <v>108450</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>9.907200000000001</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1074434</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>9.907200000000001</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>32</v>
@@ -10843,10 +11018,10 @@
         <v>107506</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>10.3353</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1111108</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>10.3353</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -10865,10 +11040,10 @@
         <v>103569</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>10.5336</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1090954</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>10.5336</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -10887,10 +11062,10 @@
         <v>97787</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10.9034</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1066211</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10.9034</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -10909,10 +11084,10 @@
         <v>104789</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>11.3148</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1185662</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>11.3148</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -10931,10 +11106,10 @@
         <v>105301</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>10.5351</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1109355</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>10.5351</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -10953,10 +11128,10 @@
         <v>77922</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>10.9252</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>851317</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>10.9252</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -10975,10 +11150,10 @@
         <v>70060</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>9.9506</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>697142</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>9.9506</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -10997,10 +11172,10 @@
         <v>72018</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>10.5667</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>760996</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>10.5667</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11019,10 +11194,10 @@
         <v>65628</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1120929</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>17.08</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11041,10 +11216,10 @@
         <v>63736</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>10.0101</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>638006</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>10.0101</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11063,10 +11238,10 @@
         <v>59748</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>9.386299999999999</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>560811</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>9.386299999999999</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11085,10 +11260,10 @@
         <v>51409</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>10.5172</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>540679</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>10.5172</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11107,10 +11282,10 @@
         <v>45718</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>8.8161</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>403056</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>8.8161</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11129,10 +11304,10 @@
         <v>43184</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>9.9093</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>427922</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>9.9093</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11151,10 +11326,10 @@
         <v>40483</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>9.6149</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>389239</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>9.6149</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11173,10 +11348,10 @@
         <v>29431</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.7461</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>345698</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.7461</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11195,10 +11370,10 @@
         <v>29353</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>10.2025</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>299473</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>10.2025</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11217,10 +11392,10 @@
         <v>24954</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>10.9847</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>274111</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>10.9847</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11239,10 +11414,10 @@
         <v>25984</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>12.0359</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>312742</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>12.0359</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11261,10 +11436,10 @@
         <v>16594</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>18.5377</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>307615</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>18.5377</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11283,10 +11458,10 @@
         <v>12430</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>22.1024</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>274733</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>22.1024</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11305,10 +11480,10 @@
         <v>11557</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>270896</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>23.44</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11327,10 +11502,10 @@
         <v>11278</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>23.2009</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>261660</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>23.2009</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11348,10 +11523,10 @@
         <v>11185</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>23.5102</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>262962</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>23.5102</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11369,10 +11544,10 @@
         <v>10301</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>23.4025</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>241069</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>23.4025</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11390,10 +11565,10 @@
         <v>8890</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>200914</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>22.6</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11411,10 +11586,10 @@
         <v>8719</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>21.9783</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>191629</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>21.9783</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11432,10 +11607,10 @@
         <v>8876</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>21.2975</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>189037</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>21.2975</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11453,10 +11628,10 @@
         <v>8968</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>19.5801</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>175594</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>19.5801</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -11792,7 +11967,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11871,10 +12046,10 @@
         <v>213496</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>12.1516</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2594328</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>12.1516</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -11891,10 +12066,10 @@
         <v>213639</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>13.0258</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2782809</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>13.0258</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1.09</v>
@@ -11913,10 +12088,10 @@
         <v>213514</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>12.5379</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2677017</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>12.5379</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1.16</v>
@@ -11935,10 +12110,10 @@
         <v>214415</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>10.9351</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2344647</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>10.9351</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -11955,10 +12130,10 @@
         <v>214800</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>10.569</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2270229</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>10.569</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -11975,10 +12150,10 @@
         <v>232837</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>9.9643</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2320050</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>9.9643</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.42</v>
@@ -11997,10 +12172,10 @@
         <v>237135</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>9.8329</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2331736</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>9.8329</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4.74</v>
@@ -12019,10 +12194,10 @@
         <v>240325</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>8.9839</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2159046</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>8.9839</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>59.21</v>
@@ -12041,10 +12216,10 @@
         <v>236194</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>9.333399999999999</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2204499</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>9.333399999999999</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>36.6</v>
@@ -12063,10 +12238,10 @@
         <v>239821</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>8.9841</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2154570</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>8.9841</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>46.03</v>
@@ -12085,10 +12260,10 @@
         <v>240343</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>8.9529</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2151775</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>8.9529</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2</v>
@@ -12107,10 +12282,10 @@
         <v>239046</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>9.183299999999999</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2195239</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>9.183299999999999</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>5</v>
@@ -12129,10 +12304,10 @@
         <v>238080</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>10.2279</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2435061</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>10.2279</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1</v>
@@ -12151,10 +12326,10 @@
         <v>235783</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>9.9869</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2354732</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>9.9869</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -12173,10 +12348,10 @@
         <v>236036</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>9.373799999999999</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2212562</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>9.373799999999999</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -12195,10 +12370,10 @@
         <v>233295</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>9.7087</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2264984</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>9.7087</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -12217,10 +12392,10 @@
         <v>164558</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>10.4473</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1719180</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>10.4473</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -12239,10 +12414,10 @@
         <v>156570</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>11.2021</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1753910</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>11.2021</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -12261,10 +12436,10 @@
         <v>151535</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>11.0466</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1673950</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>11.0466</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -12283,10 +12458,10 @@
         <v>103110</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>10.2414</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1055987</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>10.2414</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -12305,10 +12480,10 @@
         <v>102793</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>10.0647</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1034580</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>10.0647</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12327,10 +12502,10 @@
         <v>98967</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>10.4797</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1037140</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>10.4797</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -12349,10 +12524,10 @@
         <v>96995</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>10.2045</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>989790</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>10.2045</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -12369,10 +12544,10 @@
         <v>94121</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>9.9628</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>937705</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>9.9628</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -12389,10 +12564,10 @@
         <v>93522</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>9.799299999999999</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>916454</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>9.799299999999999</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -12409,10 +12584,10 @@
         <v>92796</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>916826</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>9.880000000000001</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -12429,10 +12604,10 @@
         <v>90424</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>10.1134</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>914492</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>10.1134</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -12449,10 +12624,10 @@
         <v>89509</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>10.1418</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>907778</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>10.1418</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -12469,10 +12644,10 @@
         <v>88272</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>10.0108</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>883674</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>10.0108</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -12489,10 +12664,10 @@
         <v>84823</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>9.8947</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>839300</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>9.8947</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -12509,10 +12684,10 @@
         <v>83600</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>9.493399999999999</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>793652</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>9.493399999999999</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -12529,10 +12704,10 @@
         <v>86015</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>9.152700000000001</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>787271</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>9.152700000000001</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -12549,10 +12724,10 @@
         <v>85376</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>9.088799999999999</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>775969</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>9.088799999999999</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -12569,10 +12744,10 @@
         <v>82692</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>9.2639</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>766048</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>9.2639</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -12589,10 +12764,10 @@
         <v>125796</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5.8428</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>734995</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>5.8428</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -12609,10 +12784,10 @@
         <v>125492</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5.6797</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>712762</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5.6797</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -12629,10 +12804,10 @@
         <v>119775</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>6.1494</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>736549</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>6.1494</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -12649,10 +12824,10 @@
         <v>117476</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>6.072</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>713314</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>6.072</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -12669,10 +12844,10 @@
         <v>111699</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>6.1943</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>691899</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>6.1943</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -12689,10 +12864,10 @@
         <v>107904</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>6.2377</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>673070</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>6.2377</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -12709,10 +12884,10 @@
         <v>102203</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>6.6789</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>682602</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>6.6789</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -12729,10 +12904,10 @@
         <v>92600</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>7.0378</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>651701</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>7.0378</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -12749,10 +12924,10 @@
         <v>74415</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>7.3451</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>546582</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>7.3451</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -12769,10 +12944,10 @@
         <v>73686</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>7.4672</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>550226</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>7.4672</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -12789,10 +12964,10 @@
         <v>59300</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>9.0793</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>538400</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>9.0793</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -12809,10 +12984,10 @@
         <v>62250</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>9.0137</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>561100</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>9.0137</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -12829,10 +13004,10 @@
         <v>57157</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>10.1291</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>578950</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>10.1291</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -12849,10 +13024,10 @@
         <v>53999</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11.0316</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>595698</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11.0316</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -12869,10 +13044,10 @@
         <v>59325</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>10.1923</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>604656</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>10.1923</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -12889,10 +13064,10 @@
         <v>58254</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>9.960600000000001</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>580246</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>9.960600000000001</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -12909,10 +13084,10 @@
         <v>57102</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>9.6708</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>552223</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>9.6708</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -12929,10 +13104,10 @@
         <v>55928</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>9.5741</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>535458</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>9.5741</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -12949,10 +13124,10 @@
         <v>55443</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>9.364600000000001</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>519202</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>9.364600000000001</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -12969,10 +13144,10 @@
         <v>55038</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>9.0274</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>496848</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>9.0274</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -12989,10 +13164,10 @@
         <v>51800</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>8.552100000000001</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>442998</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>8.552100000000001</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -13009,10 +13184,10 @@
         <v>53014</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>11.6527</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>617758</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>11.6527</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -13029,10 +13204,10 @@
         <v>52610</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12.0705</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>635031</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12.0705</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -13048,10 +13223,10 @@
         <v>50991</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>7.0937</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>361714</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>7.0937</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -13067,10 +13242,10 @@
         <v>51400</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6.7704</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>348000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6.7704</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -13086,10 +13261,10 @@
         <v>38400</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6.3021</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>242000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6.3021</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -13105,10 +13280,10 @@
         <v>41300</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5.5206</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>228000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5.5206</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -13124,10 +13299,10 @@
         <v>41280</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>12.0155</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>496000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>12.0155</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -13143,10 +13318,10 @@
         <v>34400</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6.9477</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>239000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6.9477</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">

--- a/Resultados/Mercado mundial - Mangos, guayabas y mangostanes.xlsx
+++ b/Resultados/Mercado mundial - Mangos, guayabas y mangostanes.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pakistán" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Indonesia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="China, mainland" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mexico" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Pakistan" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,6 +307,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +515,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,10 +761,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +843,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +925,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1007,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'México'!$B$12:$B$74</f>
+              <f>'Mexico'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'México'!$C$12:$C$74</f>
+              <f>'Mexico'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Pakistán'!$B$12:$B$74</f>
+              <f>'Pakistan'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Pakistán'!$C$12:$C$74</f>
+              <f>'Pakistan'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>6159876</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>61107091.76</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>9.920200000000001</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>61107091.76</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1990260.14</v>
@@ -2160,10 +2161,10 @@
         <v>6079221</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>60504953.6</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>9.9527</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>60504953.6</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1954487.91</v>
@@ -2182,10 +2183,10 @@
         <v>5923402</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>57470674.63</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>9.702299999999999</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>57470674.63</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2176813.26</v>
@@ -2204,10 +2205,10 @@
         <v>5855912</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>56484477.26</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>9.645700000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>56484477.26</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1931416.82</v>
@@ -2226,10 +2227,10 @@
         <v>5777281</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>56577427.07</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>9.793100000000001</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>56577427.07</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1818591.71</v>
@@ -2248,10 +2249,10 @@
         <v>5544024</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>54667389.5</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>9.8606</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>54667389.5</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1859893.67</v>
@@ -2270,10 +2271,10 @@
         <v>5570277</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>52913274.68</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>9.4992</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>52913274.68</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1740346.34</v>
@@ -2292,10 +2293,10 @@
         <v>5277343</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>47612363.91</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>9.022</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>47612363.91</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1548808.91</v>
@@ -2314,10 +2315,10 @@
         <v>5242765</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>47020857.32</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>8.9687</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>47020857.32</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1367838.31</v>
@@ -2336,10 +2337,10 @@
         <v>5614254</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>46160632.75</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>8.222</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>46160632.75</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1338166.56</v>
@@ -2358,10 +2359,10 @@
         <v>5525755</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>44920572.76</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>8.129300000000001</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>44920572.76</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1188716</v>
@@ -2380,10 +2381,10 @@
         <v>5344804</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>41891438.63</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>7.837800000000001</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>41891438.63</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1116322</v>
@@ -2402,10 +2403,10 @@
         <v>5129329</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>39735504.43</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>7.7467</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>39735504.43</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1098118</v>
@@ -2424,10 +2425,10 @@
         <v>4975512</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>37445189.72</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>7.5259</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>37445189.72</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1018355</v>
@@ -2446,10 +2447,10 @@
         <v>5020632</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>35551217.95</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>7.081</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>35551217.95</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>868459</v>
@@ -2468,10 +2469,10 @@
         <v>4824995</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>36704850.67</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>7.6072</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>36704850.67</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>908834</v>
@@ -2490,10 +2491,10 @@
         <v>4713830</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>35310662.85</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>7.4909</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>35310662.85</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>898759</v>
@@ -2512,10 +2513,10 @@
         <v>4594979</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>34136606.28</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>7.4291</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>34136606.28</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>851640</v>
@@ -2534,10 +2535,10 @@
         <v>4410839</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>31903735.41</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>7.233</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>31903735.41</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>754520</v>
@@ -2556,10 +2557,10 @@
         <v>4157484</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>29853128.96</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>7.1806</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>29853128.96</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>799651</v>
@@ -2578,10 +2579,10 @@
         <v>3782627</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>29956298.99</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7.9194</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>29956298.99</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>804074</v>
@@ -2600,10 +2601,10 @@
         <v>3649534</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>26407133.29</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>7.2358</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>26407133.29</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>685188</v>
@@ -2622,10 +2623,10 @@
         <v>3559546</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>25100988.91</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>7.051699999999999</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>25100988.91</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>637030.14</v>
@@ -2644,10 +2645,10 @@
         <v>3568700</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>24926074.09</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6.9846</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>24926074.09</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>621808.34</v>
@@ -2666,10 +2667,10 @@
         <v>3340495</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>23758045.07</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>7.112100000000001</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>23758045.07</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>565135.46</v>
@@ -2688,10 +2689,10 @@
         <v>3286993</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>22893776.03</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>6.965</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>22893776.03</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>497191.01</v>
@@ -2710,10 +2711,10 @@
         <v>2950661</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>23929396.82</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8.1098</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>23929396.82</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>447953.77</v>
@@ -2732,10 +2733,10 @@
         <v>3001264</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>22805465.43</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>7.5986</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>22805465.43</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>396900</v>
@@ -2754,10 +2755,10 @@
         <v>2956137</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>23019096.36</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>7.786899999999999</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>23019096.36</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>350166.15</v>
@@ -2776,10 +2777,10 @@
         <v>2723675</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>21870495.11</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>8.0298</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>21870495.11</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>298777.53</v>
@@ -2798,10 +2799,10 @@
         <v>2605149</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>19960034.76</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>7.6618</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>19960034.76</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>255354</v>
@@ -2820,10 +2821,10 @@
         <v>2482843</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>18506219.04</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>7.453600000000001</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>18506219.04</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>218140</v>
@@ -2842,10 +2843,10 @@
         <v>2380809</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>17933320.03</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>7.5324</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>17933320.03</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>211076</v>
@@ -2864,10 +2865,10 @@
         <v>2026419</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>17207747.96</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>8.491700000000002</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>17207747.96</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>153987</v>
@@ -2886,10 +2887,10 @@
         <v>2006975</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>16425197</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>8.184100000000001</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>16425197</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>148812</v>
@@ -2908,10 +2909,10 @@
         <v>1939221</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>15726969</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>8.1099</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>15726969</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>119496</v>
@@ -2930,10 +2931,10 @@
         <v>1896423</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>17740169</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>9.3545</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>17740169</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>128786</v>
@@ -2952,10 +2953,10 @@
         <v>1815120</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>17224872</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>9.489700000000001</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>17224872</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>112763</v>
@@ -2974,10 +2975,10 @@
         <v>1783384</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>16545060</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>9.277299999999999</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>16545060</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>98908</v>
@@ -2996,10 +2997,10 @@
         <v>1886463</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15908644</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>8.4331</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15908644</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>90098</v>
@@ -3018,10 +3019,10 @@
         <v>1828792</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>15340948</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8.3886</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>15340948</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>93233</v>
@@ -3040,10 +3041,10 @@
         <v>1801659</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>15089475</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8.375299999999999</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>15089475</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>79744</v>
@@ -3062,10 +3063,10 @@
         <v>1712965</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>15148508</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>8.843399999999999</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>15148508</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>54803</v>
@@ -3084,10 +3085,10 @@
         <v>1676714</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>14419392</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>8.5998</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>14419392</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>58474</v>
@@ -3106,10 +3107,10 @@
         <v>1606007</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>14082957</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>8.7689</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>14082957</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>43463</v>
@@ -3128,10 +3129,10 @@
         <v>1549165</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>13194420</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8.517100000000001</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>13194420</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>36964</v>
@@ -3150,10 +3151,10 @@
         <v>1542561</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>13132998</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>8.5138</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>13132998</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>25942</v>
@@ -3172,10 +3173,10 @@
         <v>1550192</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>13037114</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8.41</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>13037114</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>23960</v>
@@ -3194,10 +3195,10 @@
         <v>1500482</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>12767573</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8.509</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>12767573</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>20903</v>
@@ -3216,10 +3217,10 @@
         <v>1476384</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>12857250</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8.708600000000001</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>12857250</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>19424</v>
@@ -3238,10 +3239,10 @@
         <v>1429135</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>12345488</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>8.638399999999999</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>12345488</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>16256</v>
@@ -3260,10 +3261,10 @@
         <v>1428688</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>12488070</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>8.7409</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>12488070</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>13267</v>
@@ -3282,10 +3283,10 @@
         <v>1402683</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>12160269</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>8.6693</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>12160269</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>13330</v>
@@ -3304,10 +3305,10 @@
         <v>1408309</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>12029753</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>8.542</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>12029753</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>11472</v>
@@ -3326,10 +3327,10 @@
         <v>1397014</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11899751</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>8.518000000000001</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11899751</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>9137</v>
@@ -3348,10 +3349,10 @@
         <v>1397681</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>12166829</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>8.705</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>12166829</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>4614</v>
@@ -3370,10 +3371,10 @@
         <v>1383516</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12037655</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>8.700799999999999</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12037655</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>3942</v>
@@ -3391,10 +3392,10 @@
         <v>1349745</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>11526296</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.5396</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>11526296</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>5626</v>
@@ -3412,10 +3413,10 @@
         <v>1338699</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>11485945</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>8.5799</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>11485945</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>4790</v>
@@ -3433,10 +3434,10 @@
         <v>1297901</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>11160417</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>8.598799999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>11160417</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>3955</v>
@@ -3454,10 +3455,10 @@
         <v>1304800</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>11128982</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8.529299999999999</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>11128982</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>5066</v>
@@ -3475,10 +3476,10 @@
         <v>1295754</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11276468</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>8.7026</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11276468</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>4754</v>
@@ -3496,10 +3497,10 @@
         <v>1280629</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>10899284</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>8.510899999999999</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>10899284</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>5028</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3910,7 +3911,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3924,7 +3925,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3953,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3980,7 +3981,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4116,7 +4117,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4216,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4230,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4244,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4258,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4272,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4286,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4341,7 +4342,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4538,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4634,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4648,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4662,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4676,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4690,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4704,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4718,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4732,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Malasia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4746,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Arabia Saudita</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4773,35 +4774,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>582621.2599999998</v>
+        <v>502.81</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.2927362349727809</v>
+        <v>0.0002526353163059378</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>582118.4499999997</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.2924835996564749</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>1990260.14</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,58 +4820,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
+      <c r="C35" s="38" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
+      <c r="C36" s="38" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4932,7 +4942,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5021,10 @@
         <v>2698000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>26236000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>9.724200000000002</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>26236000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>373.12</v>
@@ -5033,10 +5043,10 @@
         <v>2704000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>26299000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>9.726000000000001</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>26299000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>404.86</v>
@@ -5055,10 +5065,10 @@
         <v>2625000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>24968000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>9.5116</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>24968000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>202.74</v>
@@ -5077,10 +5087,10 @@
         <v>2586000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>24678000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>9.542899999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>24678000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>655.91</v>
@@ -5099,10 +5109,10 @@
         <v>2572000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>25631000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>9.965399999999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>25631000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>910.9299999999999</v>
@@ -5121,10 +5131,10 @@
         <v>2527000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>24966000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>9.879700000000001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>24966000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>644.96</v>
@@ -5143,10 +5153,10 @@
         <v>2472000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>23332000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>9.438499999999999</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>23332000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>492.81</v>
@@ -5165,10 +5175,10 @@
         <v>2209000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>18643000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>8.4396</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>18643000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>523.96</v>
@@ -5187,10 +5197,10 @@
         <v>2163000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>18527000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>8.5654</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>18527000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>751.47</v>
@@ -5209,10 +5219,10 @@
         <v>2515970</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>18431330</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>7.325699999999999</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>18431330</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1035.51</v>
@@ -5231,10 +5241,10 @@
         <v>2500000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>18002000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7.2008</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>18002000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>653</v>
@@ -5253,10 +5263,10 @@
         <v>2378000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>16196000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>6.8108</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>16196000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>777</v>
@@ -5275,10 +5285,10 @@
         <v>2297000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>15188000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6.612100000000001</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>15188000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>631</v>
@@ -5297,10 +5307,10 @@
         <v>2312300</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>15026700</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6.498600000000001</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>15026700</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>132</v>
@@ -5319,10 +5329,10 @@
         <v>2309000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>12750000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5.5219</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>12750000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>297</v>
@@ -5341,10 +5351,10 @@
         <v>2201000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>13997000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6.3594</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>13997000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>171</v>
@@ -5363,10 +5373,10 @@
         <v>2154000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>13734000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6.376</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>13734000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>104</v>
@@ -5385,10 +5395,10 @@
         <v>2080700</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>12663100</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6.086</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>12663100</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>109</v>
@@ -5407,10 +5417,10 @@
         <v>1970400</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>11829700</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>6.0037</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>11829700</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>100</v>
@@ -5429,10 +5439,10 @@
         <v>1906700</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>11490000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>6.0261</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>11490000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>6</v>
@@ -5451,10 +5461,10 @@
         <v>1623400</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>12733200</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7.8435</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>12733200</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>49</v>
@@ -5473,10 +5483,10 @@
         <v>1575800</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>10020200</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>6.3588</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>10020200</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>59</v>
@@ -5495,10 +5505,10 @@
         <v>1519000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>10056800</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6.6207</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>10056800</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>19</v>
@@ -5517,10 +5527,10 @@
         <v>1486900</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>10503500</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>7.064</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>10503500</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>29</v>
@@ -5539,10 +5549,10 @@
         <v>1401600</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>9781700</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6.979</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>9781700</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>7.35</v>
@@ -5561,10 +5571,10 @@
         <v>1400000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>10230000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>7.3071</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>10230000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -5583,10 +5593,10 @@
         <v>1200000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>9.166700000000001</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>11000000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>13</v>
@@ -5605,10 +5615,10 @@
         <v>1300000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>10937183.17</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>8.413200000000002</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>10937183.17</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>18</v>
@@ -5627,10 +5637,10 @@
         <v>1280000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>8.5938</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>11000000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -5649,10 +5659,10 @@
         <v>1230000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10990000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>8.935</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10990000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>4</v>
@@ -5671,10 +5681,10 @@
         <v>1220000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>10110000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>8.286899999999999</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>10110000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -5693,10 +5703,10 @@
         <v>1136668</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>9223256</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8.1143</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>9223256</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -5715,10 +5725,10 @@
         <v>1077621</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>8752134</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>8.121700000000001</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>8752134</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5737,10 +5747,10 @@
         <v>846292</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>8645405</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>10.2156</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>8645405</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5759,10 +5769,10 @@
         <v>860000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>8504000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>9.888399999999999</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>8504000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5781,10 +5791,10 @@
         <v>852000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>7927000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>9.304</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>7927000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>72</v>
@@ -5803,10 +5813,10 @@
         <v>834000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10113330</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>12.1263</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10113330</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>4</v>
@@ -5825,10 +5835,10 @@
         <v>805000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>9871000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>12.2621</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>9871000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>2</v>
@@ -5847,10 +5857,10 @@
         <v>795000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>9337520</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>11.7453</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>9337520</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5869,10 +5879,10 @@
         <v>1042660</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>9154460</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>8.7799</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>9154460</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5891,10 +5901,10 @@
         <v>1022220</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8833800</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8.6418</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>8833800</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>48</v>
@@ -5913,10 +5923,10 @@
         <v>1001540</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8662810</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8.6495</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>8662810</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1</v>
@@ -5935,10 +5945,10 @@
         <v>979640</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>8515710</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>8.6927</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>8515710</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>123</v>
@@ -5957,10 +5967,10 @@
         <v>958430</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>8363300</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>8.726000000000001</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>8363300</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>21</v>
@@ -5979,10 +5989,10 @@
         <v>942560</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>8216510</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>8.7172</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>8216510</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>12</v>
@@ -6001,10 +6011,10 @@
         <v>925480</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>7527200</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8.1333</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>7527200</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>9</v>
@@ -6023,10 +6033,10 @@
         <v>905350</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>7456340</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>8.235899999999999</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>7456340</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>30</v>
@@ -6045,10 +6055,10 @@
         <v>898400</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>7400000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8.2369</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>7400000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>113</v>
@@ -6067,10 +6077,10 @@
         <v>886200</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>7300000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8.237399999999999</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>7300000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>28</v>
@@ -6089,10 +6099,10 @@
         <v>886200</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>7300000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8.237399999999999</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>7300000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>337</v>
@@ -6111,10 +6121,10 @@
         <v>874100</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>7200000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>8.237</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>7200000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>20</v>
@@ -6133,10 +6143,10 @@
         <v>874100</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>7200000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>8.237</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>7200000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>154</v>
@@ -6155,10 +6165,10 @@
         <v>862000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>7100000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>8.236700000000001</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>7100000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>42</v>
@@ -6177,10 +6187,10 @@
         <v>862000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>7100000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>8.236700000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>7100000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6199,10 +6209,10 @@
         <v>862000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>7100000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>8.236700000000001</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>7100000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1</v>
@@ -6221,10 +6231,10 @@
         <v>862000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7100000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>8.236700000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7100000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>15</v>
@@ -6243,10 +6253,10 @@
         <v>862000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>7100000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>8.236700000000001</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>7100000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>30</v>
@@ -6264,10 +6274,10 @@
         <v>850000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.235299999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>7000000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6285,10 +6295,10 @@
         <v>850000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>8.235299999999999</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>7000000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>2</v>
@@ -6306,10 +6316,10 @@
         <v>850000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>8.235299999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>7000000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6327,10 +6337,10 @@
         <v>850000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8.235299999999999</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>7000000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6348,10 +6358,10 @@
         <v>850000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6988000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>8.221200000000001</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6988000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6369,10 +6379,10 @@
         <v>850000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6988000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>8.221200000000001</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6988000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6708,7 +6718,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,10 +6797,10 @@
         <v>298827</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>4104448.7</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>13.7352</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>4104448.7</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.2</v>
@@ -6809,10 +6819,10 @@
         <v>303776</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>4125243.73</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>13.5799</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>4125243.73</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.01</v>
@@ -6831,10 +6841,10 @@
         <v>265324</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3561867.46</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>13.4246</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3561867.46</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0</v>
@@ -6853,10 +6863,10 @@
         <v>266726</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3617270.9</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>13.5617</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3617270.9</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.09</v>
@@ -6875,10 +6885,10 @@
         <v>246333</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3294817</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>13.3754</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>3294817</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.01</v>
@@ -6897,10 +6907,10 @@
         <v>233824</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3083621</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>13.1878</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>3083621</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.25</v>
@@ -6919,10 +6929,10 @@
         <v>197226</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2566046</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>13.0107</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2566046</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1.14</v>
@@ -6941,10 +6951,10 @@
         <v>171221</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2184399</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>12.7577</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2184399</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.06</v>
@@ -6963,10 +6973,10 @@
         <v>176946</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2176448</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>12.3</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2176448</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -6983,10 +6993,10 @@
         <v>251000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2733508</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>10.8905</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2733508</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>233.47</v>
@@ -7005,10 +7015,10 @@
         <v>207151</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2514187</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>12.137</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2514187</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>387</v>
@@ -7027,10 +7037,10 @@
         <v>219667</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2774784</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>12.6318</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2774784</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1052</v>
@@ -7049,10 +7059,10 @@
         <v>208280</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2460570</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>11.8138</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2460570</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>989</v>
@@ -7071,10 +7081,10 @@
         <v>131674</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1576376</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>11.9718</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1576376</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1129</v>
@@ -7093,10 +7103,10 @@
         <v>215387</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2569200</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>11.9283</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2569200</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>821</v>
@@ -7115,10 +7125,10 @@
         <v>190793</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2396019</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>12.5582</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2396019</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>969</v>
@@ -7137,10 +7147,10 @@
         <v>203997</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2110815</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>10.3473</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2110815</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1088</v>
@@ -7159,10 +7169,10 @@
         <v>195503</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1890811</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>9.6715</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1890811</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>966</v>
@@ -7181,10 +7191,10 @@
         <v>176000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1656104</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>9.409700000000001</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1656104</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>869</v>
@@ -7203,10 +7213,10 @@
         <v>185773</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1710102</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>9.205299999999999</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1710102</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>689</v>
@@ -7225,10 +7235,10 @@
         <v>158894</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1844654</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>11.6093</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1844654</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>348</v>
@@ -7247,10 +7257,10 @@
         <v>184659</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1627081</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>8.811299999999999</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1627081</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>254</v>
@@ -7269,10 +7279,10 @@
         <v>144208</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1086704</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>7.535699999999999</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1086704</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>186</v>
@@ -7291,10 +7301,10 @@
         <v>144185</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1031048</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>7.1509</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1031048</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>64.06999999999999</v>
@@ -7313,10 +7323,10 @@
         <v>137018</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>985357</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>7.1914</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>985357</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>40</v>
@@ -7335,10 +7345,10 @@
         <v>133452</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>772032</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>5.785100000000001</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>772032</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2</v>
@@ -7357,10 +7367,10 @@
         <v>148336</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1265636</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8.532200000000001</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1265636</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>48</v>
@@ -7379,10 +7389,10 @@
         <v>148820</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1008121.5</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>6.774100000000001</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1008121.5</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>41</v>
@@ -7401,10 +7411,10 @@
         <v>196604</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1166464.5</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>5.9331</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1166464.5</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>45</v>
@@ -7423,10 +7433,10 @@
         <v>133454</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>879526</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>6.5905</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>879526</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>8</v>
@@ -7445,10 +7455,10 @@
         <v>126184</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>657600</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>5.211399999999999</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>657600</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>4</v>
@@ -7467,10 +7477,10 @@
         <v>139563</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>695574</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>4.983899999999999</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>695574</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>6</v>
@@ -7489,10 +7499,10 @@
         <v>159031</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>640457</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>4.0272</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>640457</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -7511,10 +7521,10 @@
         <v>124790</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>508889</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>4.078</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>508889</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -7533,10 +7543,10 @@
         <v>112413</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>445042</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3.959</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>445042</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -7555,10 +7565,10 @@
         <v>104861</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>531968</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5.0731</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>531968</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -7577,10 +7587,10 @@
         <v>121127</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>515949</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4.259600000000001</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>515949</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7599,10 +7609,10 @@
         <v>91000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>405000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>4.4505</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>405000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7621,10 +7631,10 @@
         <v>87831</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>416444</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4.7414</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>416444</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7643,10 +7653,10 @@
         <v>89326</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>442244</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>4.9509</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>442244</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1</v>
@@ -7665,10 +7675,10 @@
         <v>85103</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>447900</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5.263</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>447900</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7687,10 +7697,10 @@
         <v>99000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>423000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>4.272699999999999</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>423000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7709,10 +7719,10 @@
         <v>73742</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>308601</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4.1849</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>308601</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7731,10 +7741,10 @@
         <v>76753</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>325225</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4.2373</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>325225</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7753,10 +7763,10 @@
         <v>80625</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>333188</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4.1326</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>333188</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7775,10 +7785,10 @@
         <v>44000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>164000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>3.7273</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>164000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7797,10 +7807,10 @@
         <v>72000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>343850</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>4.7757</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>343850</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7819,10 +7829,10 @@
         <v>93800</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>226000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2.4094</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>226000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7841,10 +7851,10 @@
         <v>58800</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>266700</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4.535699999999999</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>266700</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7863,10 +7873,10 @@
         <v>59000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>429900</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>7.2864</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>429900</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7885,10 +7895,10 @@
         <v>47000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>334000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>7.1064</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>334000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7907,10 +7917,10 @@
         <v>58000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>366000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>6.3103</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>366000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7929,10 +7939,10 @@
         <v>41000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>6.8293</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>280000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7951,10 +7961,10 @@
         <v>56000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>335000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5.9821</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>335000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7973,10 +7983,10 @@
         <v>80000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4.375</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>350000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7995,10 +8005,10 @@
         <v>80000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4.375</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>350000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8017,10 +8027,10 @@
         <v>80000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4.375</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>350000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8038,10 +8048,10 @@
         <v>70000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4.285699999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8059,10 +8069,10 @@
         <v>75000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>315000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4.2</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>315000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8080,10 +8090,10 @@
         <v>68000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>290000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>4.264699999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>290000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8101,10 +8111,10 @@
         <v>75000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>320000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>4.2667</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>320000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8122,10 +8132,10 @@
         <v>70000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>4.285699999999999</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8143,10 +8153,10 @@
         <v>70000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>4.285699999999999</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>300000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8482,7 +8492,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8561,17 +8571,14 @@
         <v>390712</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3860824.91</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>9.881500000000001</v>
       </c>
-      <c r="E12" s="29" t="n">
-        <v>3860824.91</v>
-      </c>
-      <c r="F12" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="29" t="inlineStr"/>
+      <c r="G12" s="29" t="inlineStr"/>
+      <c r="H12" s="29" t="n"/>
       <c r="J12" s="30" t="n"/>
     </row>
     <row r="13">
@@ -8582,17 +8589,14 @@
         <v>381000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3800000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>9.973799999999999</v>
       </c>
-      <c r="E13" s="29" t="n">
-        <v>3800000</v>
-      </c>
-      <c r="F13" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="29" t="inlineStr"/>
+      <c r="G13" s="29" t="inlineStr"/>
+      <c r="H13" s="29" t="n"/>
       <c r="J13" s="30" t="n"/>
     </row>
     <row r="14">
@@ -8603,17 +8607,14 @@
         <v>370000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3790000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>10.2432</v>
       </c>
-      <c r="E14" s="29" t="n">
-        <v>3790000</v>
-      </c>
-      <c r="F14" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="29" t="inlineStr"/>
+      <c r="G14" s="29" t="inlineStr"/>
+      <c r="H14" s="29" t="n"/>
       <c r="J14" s="30" t="n"/>
     </row>
     <row r="15">
@@ -8624,17 +8625,14 @@
         <v>360000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3798000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>10.55</v>
       </c>
-      <c r="E15" s="29" t="n">
-        <v>3798000</v>
-      </c>
-      <c r="F15" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="29" t="inlineStr"/>
+      <c r="G15" s="29" t="inlineStr"/>
+      <c r="H15" s="29" t="n"/>
       <c r="J15" s="30" t="n"/>
     </row>
     <row r="16">
@@ -8645,17 +8643,14 @@
         <v>339600</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3282000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>9.664299999999999</v>
       </c>
-      <c r="E16" s="29" t="n">
-        <v>3282000</v>
-      </c>
-      <c r="F16" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" s="29" t="inlineStr"/>
+      <c r="G16" s="29" t="inlineStr"/>
+      <c r="H16" s="29" t="n"/>
       <c r="J16" s="30" t="n"/>
     </row>
     <row r="17">
@@ -8666,17 +8661,14 @@
         <v>334313</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3151109.06</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>9.425600000000001</v>
       </c>
-      <c r="E17" s="29" t="n">
-        <v>3151109.06</v>
-      </c>
-      <c r="F17" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" s="29" t="inlineStr"/>
+      <c r="G17" s="29" t="inlineStr"/>
+      <c r="H17" s="29" t="n"/>
       <c r="J17" s="30" t="n"/>
     </row>
     <row r="18">
@@ -8687,17 +8679,14 @@
         <v>326414</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>3027318.57</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>9.2745</v>
       </c>
-      <c r="E18" s="29" t="n">
-        <v>3027318.57</v>
-      </c>
-      <c r="F18" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" s="29" t="inlineStr"/>
+      <c r="G18" s="29" t="inlineStr"/>
+      <c r="H18" s="29" t="n"/>
       <c r="J18" s="30" t="n"/>
     </row>
     <row r="19">
@@ -8708,17 +8697,14 @@
         <v>317224</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2925545.24</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>9.222299999999999</v>
       </c>
-      <c r="E19" s="29" t="n">
-        <v>2925545.24</v>
-      </c>
-      <c r="F19" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" s="29" t="inlineStr"/>
+      <c r="G19" s="29" t="inlineStr"/>
+      <c r="H19" s="29" t="n"/>
       <c r="J19" s="30" t="n"/>
     </row>
     <row r="20">
@@ -8729,17 +8715,14 @@
         <v>310617</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2804340.56</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>9.0283</v>
       </c>
-      <c r="E20" s="29" t="n">
-        <v>2804340.56</v>
-      </c>
-      <c r="F20" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" s="29" t="inlineStr"/>
+      <c r="G20" s="29" t="inlineStr"/>
+      <c r="H20" s="29" t="n"/>
       <c r="J20" s="30" t="n"/>
     </row>
     <row r="21">
@@ -8750,17 +8733,14 @@
         <v>294625</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2531859.47</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>8.593500000000001</v>
       </c>
-      <c r="E21" s="29" t="n">
-        <v>2531859.47</v>
-      </c>
-      <c r="F21" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" s="29" t="inlineStr"/>
+      <c r="G21" s="29" t="inlineStr"/>
+      <c r="H21" s="29" t="n"/>
       <c r="J21" s="30" t="n"/>
     </row>
     <row r="22">
@@ -8771,17 +8751,14 @@
         <v>341872</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>3065275.41</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>8.966100000000001</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>3065275.41</v>
-      </c>
-      <c r="F22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" s="29" t="inlineStr"/>
+      <c r="G22" s="29" t="inlineStr"/>
+      <c r="H22" s="29" t="n"/>
       <c r="J22" s="30" t="n"/>
     </row>
     <row r="23">
@@ -8792,17 +8769,14 @@
         <v>335646</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2734978.41</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>8.148399999999999</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>2734978.41</v>
-      </c>
-      <c r="F23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="29" t="inlineStr"/>
+      <c r="G23" s="29" t="inlineStr"/>
+      <c r="H23" s="29" t="n"/>
       <c r="J23" s="30" t="n"/>
     </row>
     <row r="24">
@@ -8813,17 +8787,14 @@
         <v>350125</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2906401.21</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>8.301</v>
       </c>
-      <c r="E24" s="29" t="n">
-        <v>2906401.21</v>
-      </c>
-      <c r="F24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" s="29" t="inlineStr"/>
+      <c r="G24" s="29" t="inlineStr"/>
+      <c r="H24" s="29" t="n"/>
       <c r="J24" s="30" t="n"/>
     </row>
     <row r="25">
@@ -8834,17 +8805,14 @@
         <v>363052</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>3042885.2</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>8.381399999999999</v>
       </c>
-      <c r="E25" s="29" t="n">
-        <v>3042885.2</v>
-      </c>
-      <c r="F25" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
+      <c r="F25" s="29" t="inlineStr"/>
+      <c r="G25" s="29" t="inlineStr"/>
+      <c r="H25" s="29" t="n"/>
       <c r="J25" s="30" t="n"/>
     </row>
     <row r="26">
@@ -8855,17 +8823,14 @@
         <v>376583</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3191641.28</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>8.475299999999999</v>
       </c>
-      <c r="E26" s="29" t="n">
-        <v>3191641.28</v>
-      </c>
-      <c r="F26" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" s="29" t="inlineStr"/>
+      <c r="G26" s="29" t="inlineStr"/>
+      <c r="H26" s="29" t="n"/>
       <c r="J26" s="30" t="n"/>
     </row>
     <row r="27">
@@ -8876,17 +8841,14 @@
         <v>390314</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>3349787.89</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>8.5823</v>
       </c>
-      <c r="E27" s="29" t="n">
-        <v>3349787.89</v>
-      </c>
-      <c r="F27" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" s="29" t="inlineStr"/>
+      <c r="G27" s="29" t="inlineStr"/>
+      <c r="H27" s="29" t="n"/>
       <c r="J27" s="30" t="n"/>
     </row>
     <row r="28">
@@ -8897,17 +8859,14 @@
         <v>425000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>8.235299999999999</v>
       </c>
-      <c r="E28" s="29" t="n">
-        <v>3500000</v>
-      </c>
-      <c r="F28" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" s="29" t="inlineStr"/>
+      <c r="G28" s="29" t="inlineStr"/>
+      <c r="H28" s="29" t="n"/>
       <c r="J28" s="30" t="n"/>
     </row>
     <row r="29">
@@ -8918,17 +8877,14 @@
         <v>418000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>9.3301</v>
       </c>
-      <c r="E29" s="29" t="n">
-        <v>3900000</v>
-      </c>
-      <c r="F29" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
+      <c r="F29" s="29" t="inlineStr"/>
+      <c r="G29" s="29" t="inlineStr"/>
+      <c r="H29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
     </row>
     <row r="30">
@@ -8939,17 +8895,14 @@
         <v>415000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>4100000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>9.8795</v>
       </c>
-      <c r="E30" s="29" t="n">
-        <v>4100000</v>
-      </c>
-      <c r="F30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
+      <c r="F30" s="29" t="inlineStr"/>
+      <c r="G30" s="29" t="inlineStr"/>
+      <c r="H30" s="29" t="n"/>
       <c r="J30" s="30" t="n"/>
     </row>
     <row r="31">
@@ -8960,17 +8913,14 @@
         <v>400000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>3660000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>9.15</v>
       </c>
-      <c r="E31" s="29" t="n">
-        <v>3660000</v>
-      </c>
-      <c r="F31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F31" s="29" t="inlineStr"/>
+      <c r="G31" s="29" t="inlineStr"/>
+      <c r="H31" s="29" t="n"/>
       <c r="J31" s="30" t="n"/>
     </row>
     <row r="32">
@@ -8981,17 +8931,14 @@
         <v>390000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>3350000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>8.589700000000001</v>
       </c>
-      <c r="E32" s="29" t="n">
-        <v>3350000</v>
-      </c>
-      <c r="F32" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" s="29" t="inlineStr"/>
+      <c r="G32" s="29" t="inlineStr"/>
+      <c r="H32" s="29" t="n"/>
       <c r="J32" s="30" t="n"/>
     </row>
     <row r="33">
@@ -9002,17 +8949,14 @@
         <v>375000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>3300000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="E33" s="29" t="n">
-        <v>3300000</v>
-      </c>
-      <c r="F33" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" s="29" t="inlineStr"/>
+      <c r="G33" s="29" t="inlineStr"/>
+      <c r="H33" s="29" t="n"/>
       <c r="J33" s="30" t="n"/>
     </row>
     <row r="34">
@@ -9023,17 +8967,14 @@
         <v>370000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>3060000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>8.270299999999999</v>
       </c>
-      <c r="E34" s="29" t="n">
-        <v>3060000</v>
-      </c>
-      <c r="F34" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" s="29" t="inlineStr"/>
+      <c r="G34" s="29" t="inlineStr"/>
+      <c r="H34" s="29" t="n"/>
       <c r="J34" s="30" t="n"/>
     </row>
     <row r="35">
@@ -9044,17 +8985,14 @@
         <v>460000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6.5217</v>
       </c>
-      <c r="E35" s="29" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="F35" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
+      <c r="F35" s="29" t="inlineStr"/>
+      <c r="G35" s="29" t="inlineStr"/>
+      <c r="H35" s="29" t="n"/>
       <c r="J35" s="30" t="n"/>
     </row>
     <row r="36">
@@ -9065,17 +9003,14 @@
         <v>400000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2920000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>7.3</v>
       </c>
-      <c r="E36" s="29" t="n">
-        <v>2920000</v>
-      </c>
-      <c r="F36" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" s="29" t="inlineStr"/>
+      <c r="G36" s="29" t="inlineStr"/>
+      <c r="H36" s="29" t="n"/>
       <c r="J36" s="30" t="n"/>
     </row>
     <row r="37">
@@ -9086,17 +9021,14 @@
         <v>380000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>2375000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>6.25</v>
       </c>
-      <c r="E37" s="29" t="n">
-        <v>2375000</v>
-      </c>
-      <c r="F37" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" s="29" t="inlineStr"/>
+      <c r="G37" s="29" t="inlineStr"/>
+      <c r="H37" s="29" t="n"/>
       <c r="J37" s="30" t="n"/>
     </row>
     <row r="38">
@@ -9107,17 +9039,14 @@
         <v>294000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7.483</v>
       </c>
-      <c r="E38" s="29" t="n">
-        <v>2200000</v>
-      </c>
-      <c r="F38" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
+      <c r="F38" s="29" t="inlineStr"/>
+      <c r="G38" s="29" t="inlineStr"/>
+      <c r="H38" s="29" t="n"/>
       <c r="J38" s="30" t="n"/>
     </row>
     <row r="39">
@@ -9128,17 +9057,14 @@
         <v>300500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1872000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>6.2296</v>
       </c>
-      <c r="E39" s="29" t="n">
-        <v>1872000</v>
-      </c>
-      <c r="F39" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" s="29" t="inlineStr"/>
+      <c r="G39" s="29" t="inlineStr"/>
+      <c r="H39" s="29" t="n"/>
       <c r="J39" s="30" t="n"/>
     </row>
     <row r="40">
@@ -9149,17 +9075,14 @@
         <v>267000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>6.7416</v>
       </c>
-      <c r="E40" s="29" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="F40" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" s="29" t="inlineStr"/>
+      <c r="G40" s="29" t="inlineStr"/>
+      <c r="H40" s="29" t="n"/>
       <c r="J40" s="30" t="n"/>
     </row>
     <row r="41">
@@ -9170,17 +9093,14 @@
         <v>172000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>8.314</v>
       </c>
-      <c r="E41" s="29" t="n">
-        <v>1430000</v>
-      </c>
-      <c r="F41" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
+      <c r="F41" s="29" t="inlineStr"/>
+      <c r="G41" s="29" t="inlineStr"/>
+      <c r="H41" s="29" t="n"/>
       <c r="J41" s="30" t="n"/>
     </row>
     <row r="42">
@@ -9191,17 +9111,14 @@
         <v>145000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1163000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>8.0207</v>
       </c>
-      <c r="E42" s="29" t="n">
-        <v>1163000</v>
-      </c>
-      <c r="F42" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
+      <c r="F42" s="29" t="inlineStr"/>
+      <c r="G42" s="29" t="inlineStr"/>
+      <c r="H42" s="29" t="n"/>
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
@@ -9212,17 +9129,14 @@
         <v>130000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>7.6923</v>
       </c>
-      <c r="E43" s="29" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="29" t="inlineStr"/>
+      <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
@@ -9233,17 +9147,14 @@
         <v>100000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>940000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>9.4</v>
       </c>
-      <c r="E44" s="29" t="n">
-        <v>940000</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
+      <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
@@ -9254,17 +9165,14 @@
         <v>95000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>8.421100000000001</v>
       </c>
-      <c r="E45" s="29" t="n">
-        <v>800000</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
@@ -9275,17 +9183,14 @@
         <v>80000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>524000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>6.55</v>
       </c>
-      <c r="E46" s="29" t="n">
-        <v>524000</v>
-      </c>
-      <c r="F46" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
@@ -9296,17 +9201,14 @@
         <v>75000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>6.6667</v>
       </c>
-      <c r="E47" s="29" t="n">
-        <v>500000</v>
-      </c>
-      <c r="F47" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
@@ -9317,17 +9219,14 @@
         <v>65000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>430000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>6.615399999999999</v>
       </c>
-      <c r="E48" s="29" t="n">
-        <v>430000</v>
-      </c>
-      <c r="F48" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
@@ -9338,17 +9237,14 @@
         <v>55000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>6.3636</v>
       </c>
-      <c r="E49" s="29" t="n">
-        <v>350000</v>
-      </c>
-      <c r="F49" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
@@ -9359,17 +9255,14 @@
         <v>52000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>5.7692</v>
       </c>
-      <c r="E50" s="29" t="n">
-        <v>300000</v>
-      </c>
-      <c r="F50" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
@@ -9380,17 +9273,14 @@
         <v>55000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>286000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>5.2</v>
       </c>
-      <c r="E51" s="29" t="n">
-        <v>286000</v>
-      </c>
-      <c r="F51" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
@@ -9401,17 +9291,14 @@
         <v>45000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>234000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5.2</v>
       </c>
-      <c r="E52" s="29" t="n">
-        <v>234000</v>
-      </c>
-      <c r="F52" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
@@ -9422,17 +9309,14 @@
         <v>43000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>208000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>4.8372</v>
       </c>
-      <c r="E53" s="29" t="n">
-        <v>208000</v>
-      </c>
-      <c r="F53" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
@@ -9443,17 +9327,14 @@
         <v>35000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>204000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5.828600000000001</v>
       </c>
-      <c r="E54" s="29" t="n">
-        <v>204000</v>
-      </c>
-      <c r="F54" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
@@ -9464,17 +9345,14 @@
         <v>36000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>191000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5.3056</v>
       </c>
-      <c r="E55" s="29" t="n">
-        <v>191000</v>
-      </c>
-      <c r="F55" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
@@ -9485,17 +9363,14 @@
         <v>35000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>188000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5.3714</v>
       </c>
-      <c r="E56" s="29" t="n">
-        <v>188000</v>
-      </c>
-      <c r="F56" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
@@ -9506,17 +9381,14 @@
         <v>51000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>212000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4.156899999999999</v>
       </c>
-      <c r="E57" s="29" t="n">
-        <v>212000</v>
-      </c>
-      <c r="F57" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
@@ -9527,17 +9399,14 @@
         <v>50000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>185000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>3.7</v>
       </c>
-      <c r="E58" s="29" t="n">
-        <v>185000</v>
-      </c>
-      <c r="F58" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
@@ -9548,17 +9417,14 @@
         <v>55000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>190000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>3.4545</v>
       </c>
-      <c r="E59" s="29" t="n">
-        <v>190000</v>
-      </c>
-      <c r="F59" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
@@ -9569,17 +9435,14 @@
         <v>50000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="E60" s="29" t="n">
-        <v>200000</v>
-      </c>
-      <c r="F60" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
@@ -9590,17 +9453,14 @@
         <v>53000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>220000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4.1509</v>
       </c>
-      <c r="E61" s="29" t="n">
-        <v>220000</v>
-      </c>
-      <c r="F61" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
@@ -9611,17 +9471,14 @@
         <v>40000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>220000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>5.5</v>
       </c>
-      <c r="E62" s="29" t="n">
-        <v>220000</v>
-      </c>
-      <c r="F62" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
@@ -9632,17 +9489,14 @@
         <v>44000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>4.5455</v>
       </c>
-      <c r="E63" s="29" t="n">
-        <v>200000</v>
-      </c>
-      <c r="F63" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
@@ -9653,17 +9507,14 @@
         <v>50000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>3.6</v>
       </c>
-      <c r="E64" s="29" t="n">
-        <v>180000</v>
-      </c>
-      <c r="F64" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
@@ -9674,17 +9525,14 @@
         <v>49000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>3.6735</v>
       </c>
-      <c r="E65" s="29" t="n">
-        <v>180000</v>
-      </c>
-      <c r="F65" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
@@ -9695,17 +9543,14 @@
         <v>43000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>175000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4.0698</v>
       </c>
-      <c r="E66" s="29" t="n">
-        <v>175000</v>
-      </c>
-      <c r="F66" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
@@ -9716,17 +9561,14 @@
         <v>47000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>3.617</v>
       </c>
-      <c r="E67" s="29" t="n">
-        <v>170000</v>
-      </c>
-      <c r="F67" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
@@ -9737,17 +9579,14 @@
         <v>39000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>177000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4.5385</v>
       </c>
-      <c r="E68" s="29" t="n">
-        <v>177000</v>
-      </c>
-      <c r="F68" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
       <c r="B69" s="28" t="n">
@@ -9757,17 +9596,14 @@
         <v>40000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>176000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4.4</v>
       </c>
-      <c r="E69" s="29" t="n">
-        <v>176000</v>
-      </c>
-      <c r="F69" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
       <c r="B70" s="28" t="n">
@@ -9777,17 +9613,14 @@
         <v>30000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>189000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6.3</v>
       </c>
-      <c r="E70" s="29" t="n">
-        <v>189000</v>
-      </c>
-      <c r="F70" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
       <c r="B71" s="28" t="n">
@@ -9797,17 +9630,14 @@
         <v>30000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>172000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5.7333</v>
       </c>
-      <c r="E71" s="29" t="n">
-        <v>172000</v>
-      </c>
-      <c r="F71" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
       <c r="B72" s="28" t="n">
@@ -9817,17 +9647,14 @@
         <v>30000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>183000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6.1</v>
       </c>
-      <c r="E72" s="29" t="n">
-        <v>183000</v>
-      </c>
-      <c r="F72" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
       <c r="B73" s="28" t="n">
@@ -9837,17 +9664,14 @@
         <v>30000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>173000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5.7667</v>
       </c>
-      <c r="E73" s="29" t="n">
-        <v>173000</v>
-      </c>
-      <c r="F73" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
       <c r="B74" s="28" t="n">
@@ -9857,17 +9681,14 @@
         <v>30000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>191000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6.3667</v>
       </c>
-      <c r="E74" s="29" t="n">
-        <v>191000</v>
-      </c>
-      <c r="F74" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
       <c r="B75" s="29" t="n"/>
@@ -9875,6 +9696,8 @@
       <c r="D75" s="29" t="n"/>
       <c r="E75" s="29" t="n"/>
       <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
       <c r="B76" s="29" t="n"/>
@@ -9882,6 +9705,8 @@
       <c r="D76" s="29" t="n"/>
       <c r="E76" s="29" t="n"/>
       <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -10191,7 +10016,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10270,10 +10095,10 @@
         <v>236374</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2706107.45</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>11.4484</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2706107.45</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>502.81</v>
@@ -10292,10 +10117,10 @@
         <v>222399</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2497207.93</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>11.2285</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2497207.93</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2558.03</v>
@@ -10314,10 +10139,10 @@
         <v>215591</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2441495.85</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>11.3246</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2441495.85</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1087.41</v>
@@ -10336,10 +10161,10 @@
         <v>213634</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2373111.22</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>11.1083</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2373111.22</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1403.06</v>
@@ -10358,10 +10183,10 @@
         <v>215982</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2396675.34</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>11.0966</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2396675.34</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1942.09</v>
@@ -10380,10 +10205,10 @@
         <v>210685</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2178926.91</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>10.3421</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2178926.91</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2347.23</v>
@@ -10402,10 +10227,10 @@
         <v>210847</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2283192</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>10.8287</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2283192</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1908.76</v>
@@ -10424,10 +10249,10 @@
         <v>206423</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2197312.56</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>10.6447</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2197312.56</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1768.35</v>
@@ -10446,10 +10271,10 @@
         <v>203276</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2069959.45</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>10.183</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2069959.45</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1587.66</v>
@@ -10468,10 +10293,10 @@
         <v>196216</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1754608.84</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>8.942200000000001</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1754608.84</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2041.44</v>
@@ -10490,10 +10315,10 @@
         <v>198883</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1901871</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>9.562799999999999</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1901871</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>3307</v>
@@ -10512,10 +10337,10 @@
         <v>195674</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1760588</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>8.9976</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1760588</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2921</v>
@@ -10534,10 +10359,10 @@
         <v>196930</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1827314</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>9.279</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1827314</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1976</v>
@@ -10556,10 +10381,10 @@
         <v>174970</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1632649</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>9.331</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1632649</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2300</v>
@@ -10578,10 +10403,10 @@
         <v>170027</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1509272</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>8.876700000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1509272</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2982</v>
@@ -10600,10 +10425,10 @@
         <v>172285</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1716537</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>9.9634</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1716537</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2007</v>
@@ -10622,10 +10447,10 @@
         <v>193390</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1911267</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>9.882999999999999</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1911267</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2161</v>
@@ -10644,10 +10469,10 @@
         <v>195359</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2045687</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>10.4714</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2045687</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2004</v>
@@ -10666,10 +10491,10 @@
         <v>183061</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1679472</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>9.1744</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1679472</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1937</v>
@@ -10688,10 +10513,10 @@
         <v>166000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1573000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>9.475899999999999</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1573000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1545</v>
@@ -10710,10 +10535,10 @@
         <v>173837</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1362000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7.834899999999999</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1362000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2244</v>
@@ -10732,10 +10557,10 @@
         <v>161899</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1523160</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>9.408100000000001</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1523160</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>989</v>
@@ -10754,10 +10579,10 @@
         <v>162304</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1577450</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>9.719100000000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1577450</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2271</v>
@@ -10776,10 +10601,10 @@
         <v>154304</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1559351</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>10.1057</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1559351</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1007.14</v>
@@ -10798,10 +10623,10 @@
         <v>155252</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1508468</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>9.716299999999999</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1508468</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>167</v>
@@ -10820,10 +10645,10 @@
         <v>153896</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1473852</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>9.5769</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1473852</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>28</v>
@@ -10842,10 +10667,10 @@
         <v>149455</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1500317</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>10.0386</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1500317</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>60</v>
@@ -10864,10 +10689,10 @@
         <v>138598</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1188907</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>8.578100000000001</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1188907</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>20</v>
@@ -10886,10 +10711,10 @@
         <v>134902</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1342097</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>9.948700000000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1342097</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -10908,10 +10733,10 @@
         <v>127995</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1117853</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>8.733600000000001</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1117853</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2</v>
@@ -10930,10 +10755,10 @@
         <v>120264</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1151192</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>9.5722</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1151192</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -10952,10 +10777,10 @@
         <v>120670</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1075921</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8.9162</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1075921</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>19</v>
@@ -10974,10 +10799,10 @@
         <v>115050</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1117900</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>9.7166</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1117900</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>66</v>
@@ -10996,10 +10821,10 @@
         <v>108450</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1074434</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>9.907200000000001</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1074434</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>32</v>
@@ -11018,10 +10843,10 @@
         <v>107506</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1111108</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>10.3353</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1111108</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -11040,10 +10865,10 @@
         <v>103569</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1090954</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>10.5336</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1090954</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -11062,10 +10887,10 @@
         <v>97787</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1066211</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10.9034</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1066211</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -11084,10 +10909,10 @@
         <v>104789</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1185662</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>11.3148</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1185662</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -11106,10 +10931,10 @@
         <v>105301</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1109355</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>10.5351</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1109355</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -11128,10 +10953,10 @@
         <v>77922</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>851317</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>10.9252</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>851317</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -11150,10 +10975,10 @@
         <v>70060</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>697142</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>9.9506</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>697142</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -11172,10 +10997,10 @@
         <v>72018</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>760996</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>10.5667</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>760996</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11194,10 +11019,10 @@
         <v>65628</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1120929</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>17.08</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1120929</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11216,10 +11041,10 @@
         <v>63736</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>638006</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>10.0101</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>638006</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11238,10 +11063,10 @@
         <v>59748</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>560811</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>9.386299999999999</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>560811</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11260,10 +11085,10 @@
         <v>51409</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>540679</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>10.5172</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>540679</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11282,10 +11107,10 @@
         <v>45718</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>403056</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>8.8161</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>403056</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11304,10 +11129,10 @@
         <v>43184</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>427922</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>9.9093</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>427922</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11326,10 +11151,10 @@
         <v>40483</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>389239</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>9.6149</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>389239</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11348,10 +11173,10 @@
         <v>29431</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>345698</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.7461</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>345698</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11370,10 +11195,10 @@
         <v>29353</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>299473</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>10.2025</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>299473</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11392,10 +11217,10 @@
         <v>24954</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>274111</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>10.9847</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>274111</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11414,10 +11239,10 @@
         <v>25984</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>312742</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>12.0359</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>312742</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11436,10 +11261,10 @@
         <v>16594</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>307615</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>18.5377</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>307615</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11458,10 +11283,10 @@
         <v>12430</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>274733</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>22.1024</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>274733</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11480,10 +11305,10 @@
         <v>11557</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>270896</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>23.44</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>270896</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11502,10 +11327,10 @@
         <v>11278</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>261660</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>23.2009</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>261660</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11523,10 +11348,10 @@
         <v>11185</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>262962</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>23.5102</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>262962</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11544,10 +11369,10 @@
         <v>10301</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>241069</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>23.4025</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>241069</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11565,10 +11390,10 @@
         <v>8890</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>200914</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>22.6</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>200914</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11586,10 +11411,10 @@
         <v>8719</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>191629</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>21.9783</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>191629</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11607,10 +11432,10 @@
         <v>8876</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>189037</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>21.2975</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>189037</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11628,10 +11453,10 @@
         <v>8968</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>175594</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>19.5801</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>175594</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -11967,7 +11792,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12046,10 +11871,10 @@
         <v>213496</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2594328</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>12.1516</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2594328</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -12066,10 +11891,10 @@
         <v>213639</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2782809</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>13.0258</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2782809</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1.09</v>
@@ -12088,10 +11913,10 @@
         <v>213514</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2677017</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>12.5379</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2677017</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1.16</v>
@@ -12110,10 +11935,10 @@
         <v>214415</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2344647</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>10.9351</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2344647</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -12130,10 +11955,10 @@
         <v>214800</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2270229</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>10.569</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2270229</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -12150,10 +11975,10 @@
         <v>232837</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2320050</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>9.9643</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2320050</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.42</v>
@@ -12172,10 +11997,10 @@
         <v>237135</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2331736</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>9.8329</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2331736</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>4.74</v>
@@ -12194,10 +12019,10 @@
         <v>240325</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2159046</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>8.9839</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2159046</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>59.21</v>
@@ -12216,10 +12041,10 @@
         <v>236194</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2204499</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>9.333399999999999</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2204499</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>36.6</v>
@@ -12238,10 +12063,10 @@
         <v>239821</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2154570</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>8.9841</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2154570</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>46.03</v>
@@ -12260,10 +12085,10 @@
         <v>240343</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2151775</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>8.9529</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2151775</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2</v>
@@ -12282,10 +12107,10 @@
         <v>239046</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2195239</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>9.183299999999999</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2195239</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>5</v>
@@ -12304,10 +12129,10 @@
         <v>238080</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2435061</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>10.2279</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2435061</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1</v>
@@ -12326,10 +12151,10 @@
         <v>235783</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2354732</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>9.9869</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2354732</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -12348,10 +12173,10 @@
         <v>236036</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2212562</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>9.373799999999999</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2212562</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -12370,10 +12195,10 @@
         <v>233295</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2264984</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>9.7087</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2264984</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -12392,10 +12217,10 @@
         <v>164558</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1719180</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>10.4473</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1719180</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -12414,10 +12239,10 @@
         <v>156570</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1753910</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>11.2021</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1753910</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -12436,10 +12261,10 @@
         <v>151535</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1673950</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>11.0466</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1673950</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -12458,10 +12283,10 @@
         <v>103110</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1055987</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>10.2414</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1055987</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -12480,10 +12305,10 @@
         <v>102793</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1034580</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>10.0647</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1034580</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12502,10 +12327,10 @@
         <v>98967</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1037140</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>10.4797</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1037140</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -12524,10 +12349,10 @@
         <v>96995</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>989790</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>10.2045</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>989790</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="n">
@@ -12544,10 +12369,10 @@
         <v>94121</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>937705</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>9.9628</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>937705</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="n">
@@ -12564,10 +12389,10 @@
         <v>93522</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>916454</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>9.799299999999999</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>916454</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -12584,10 +12409,10 @@
         <v>92796</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>916826</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>9.880000000000001</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>916826</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -12604,10 +12429,10 @@
         <v>90424</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>914492</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>10.1134</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>914492</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -12624,10 +12449,10 @@
         <v>89509</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>907778</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>10.1418</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>907778</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -12644,10 +12469,10 @@
         <v>88272</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>883674</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>10.0108</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>883674</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -12664,10 +12489,10 @@
         <v>84823</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>839300</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>9.8947</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>839300</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -12684,10 +12509,10 @@
         <v>83600</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>793652</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>9.493399999999999</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>793652</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -12704,10 +12529,10 @@
         <v>86015</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>787271</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>9.152700000000001</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>787271</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -12724,10 +12549,10 @@
         <v>85376</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>775969</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>9.088799999999999</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>775969</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -12744,10 +12569,10 @@
         <v>82692</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>766048</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>9.2639</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>766048</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -12764,10 +12589,10 @@
         <v>125796</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>734995</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5.8428</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>734995</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -12784,10 +12609,10 @@
         <v>125492</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>712762</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5.6797</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>712762</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -12804,10 +12629,10 @@
         <v>119775</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>736549</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>6.1494</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>736549</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -12824,10 +12649,10 @@
         <v>117476</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>713314</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>6.072</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>713314</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -12844,10 +12669,10 @@
         <v>111699</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>691899</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>6.1943</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>691899</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -12864,10 +12689,10 @@
         <v>107904</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>673070</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>6.2377</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>673070</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -12884,10 +12709,10 @@
         <v>102203</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>682602</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>6.6789</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>682602</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -12904,10 +12729,10 @@
         <v>92600</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>651701</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>7.0378</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>651701</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -12924,10 +12749,10 @@
         <v>74415</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>546582</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>7.3451</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>546582</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -12944,10 +12769,10 @@
         <v>73686</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>550226</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>7.4672</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>550226</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -12964,10 +12789,10 @@
         <v>59300</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>538400</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>9.0793</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>538400</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -12984,10 +12809,10 @@
         <v>62250</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>561100</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>9.0137</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>561100</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -13004,10 +12829,10 @@
         <v>57157</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>578950</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>10.1291</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>578950</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -13024,10 +12849,10 @@
         <v>53999</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>595698</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11.0316</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>595698</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -13044,10 +12869,10 @@
         <v>59325</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>604656</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>10.1923</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>604656</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -13064,10 +12889,10 @@
         <v>58254</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>580246</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>9.960600000000001</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>580246</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -13084,10 +12909,10 @@
         <v>57102</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>552223</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>9.6708</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>552223</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -13104,10 +12929,10 @@
         <v>55928</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>535458</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>9.5741</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>535458</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -13124,10 +12949,10 @@
         <v>55443</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>519202</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>9.364600000000001</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>519202</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -13144,10 +12969,10 @@
         <v>55038</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>496848</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>9.0274</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>496848</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -13164,10 +12989,10 @@
         <v>51800</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>442998</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>8.552100000000001</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>442998</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -13184,10 +13009,10 @@
         <v>53014</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>617758</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>11.6527</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>617758</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -13204,10 +13029,10 @@
         <v>52610</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>635031</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12.0705</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>635031</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -13223,10 +13048,10 @@
         <v>50991</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>361714</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>7.0937</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>361714</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -13242,10 +13067,10 @@
         <v>51400</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>348000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6.7704</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>348000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -13261,10 +13086,10 @@
         <v>38400</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>242000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6.3021</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>242000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -13280,10 +13105,10 @@
         <v>41300</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>228000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5.5206</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>228000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -13299,10 +13124,10 @@
         <v>41280</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>496000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>12.0155</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>496000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -13318,10 +13143,10 @@
         <v>34400</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>239000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6.9477</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>239000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
